--- a/test.xlsx
+++ b/test.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <sheets>
-    <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
+    <sheet name="Đăng nhập(App)" sheetId="1" r:id="rId1"/>
     <sheet name="All" sheetId="2" r:id="rId2"/>
-    <sheet name="MuaKC" sheetId="3" r:id="rId3"/>
-    <sheet name="Đăng bài" sheetId="4" r:id="rId4"/>
-    <sheet name="Chat" sheetId="5" r:id="rId5"/>
-    <sheet name="Ung tuyen" sheetId="6" r:id="rId6"/>
-    <sheet name="Yêu thích công việc" sheetId="7" r:id="rId7"/>
-    <sheet name="Đánh giá" sheetId="8" r:id="rId8"/>
-    <sheet name="Tính lương" sheetId="9" r:id="rId9"/>
-    <sheet name="Xem tình trạng ứng tuyển" sheetId="10" r:id="rId10"/>
-    <sheet name="Theo dõi doanh nghiệp" sheetId="11" r:id="rId11"/>
-    <sheet name="Report bài đăng" sheetId="12" r:id="rId12"/>
-    <sheet name="Tìm kiếm" sheetId="13" r:id="rId13"/>
-    <sheet name="Xét duyệt đơn ứng tuyển" sheetId="14" r:id="rId14"/>
+    <sheet name="Đăng nhập(Web)" sheetId="3" r:id="rId3"/>
+    <sheet name="Chat(Web)" sheetId="4" r:id="rId4"/>
+    <sheet name="Đăng bài(web)" sheetId="5" r:id="rId5"/>
+    <sheet name="MuaKC" sheetId="6" r:id="rId6"/>
+    <sheet name="Chat(App)" sheetId="7" r:id="rId7"/>
+    <sheet name="Ung tuyen" sheetId="8" r:id="rId8"/>
+    <sheet name="Yêu thích công việc" sheetId="9" r:id="rId9"/>
+    <sheet name="Đánh giá" sheetId="10" r:id="rId10"/>
+    <sheet name="Tính lương" sheetId="11" r:id="rId11"/>
+    <sheet name="Xem tình trạng ứng tuyển" sheetId="12" r:id="rId12"/>
+    <sheet name="Theo dõi doanh nghiệp" sheetId="13" r:id="rId13"/>
+    <sheet name="Tìm kiếm" sheetId="14" r:id="rId14"/>
     <sheet name="Tạo CV" sheetId="15" r:id="rId15"/>
-    <sheet name="Đăng kí" sheetId="16" r:id="rId16"/>
-    <sheet name="Xem CV" sheetId="17" r:id="rId17"/>
+    <sheet name="Report bài đăng" sheetId="16" r:id="rId16"/>
+    <sheet name="Xét duyệt đơn ứng tuyển" sheetId="17" r:id="rId17"/>
+    <sheet name="Đăng kí" sheetId="18" r:id="rId18"/>
+    <sheet name="Xem CV" sheetId="19" r:id="rId19"/>
   </sheets>
 </workbook>
 </file>
@@ -413,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -450,7 +452,7 @@
         <v>Status</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,21 +465,22 @@
       <c r="E2" t="str">
         <v>1. Vào trang đăng nhập</v>
       </c>
-      <c r="G2" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1]  Hiển thị trang đăng nhập _x000d_
-[2] Hiển thị hộp thoại đăng nhập_x000d_
-[3] Hiển thị tài khoản trên ô text box_x000d_
-[4] Hiển thị mật khẩu đã bị che_x000d_
-[5] Hiển thị đăng nhập thành công_x000d_
-</v>
+      <c r="G2" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="str">
         <v>2. Bấm nút đăng nhập</v>
       </c>
-      <c r="I3" t="str">
-        <v>test</v>
+      <c r="G3" t="str">
+        <v>Hiển thị box nhập thông tin đăng nhập</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="4">
@@ -485,23 +488,41 @@
         <v>3. Nhập tài khoản</v>
       </c>
       <c r="F4" t="str">
-        <v>admin@gmail.com</v>
+        <v>quang@gmail.com</v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve">Hiển thị thông tin tài khoản </v>
+      </c>
+      <c r="J4" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" t="str">
         <v>4. Nhập mật khẩu</v>
       </c>
-      <c r="F5">
-        <v>12345</v>
+      <c r="F5" t="str">
+        <v>Quang123</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Hiển thị thông tin mật khẩu trên text box</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" t="str">
         <v>5. Bấm nút đăng nhập</v>
       </c>
-    </row>
-    <row r="7" xml:space="preserve">
+      <c r="G6" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -514,19 +535,23 @@
       <c r="E7" t="str">
         <v>1. Vào trang đăng nhập</v>
       </c>
-      <c r="G7" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1]  Hiển thị trang đăng nhập _x000d_
-[2] Hiển thị hộp thoại đăng nhập_x000d_
-[3] Hiển thị tài khoản trên ô text box_x000d_
-[4] Hiển thị mật khẩu đã bị che_x000d_
-[5] Alert thông báo đăng nhập thất bại_x000d_
-</v>
+      <c r="G7" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="str">
         <v>2. Bấm nút đăng nhập</v>
       </c>
+      <c r="G8" t="str">
+        <v>Hiển thị box nhập thông tin đăng nhập</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Pass</v>
+      </c>
     </row>
     <row r="9">
       <c r="E9" t="str">
@@ -535,6 +560,12 @@
       <c r="F9" t="str">
         <v>admin@gmail.com</v>
       </c>
+      <c r="G9" t="str">
+        <v>Hiển thị tài khoản trên text box</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Pass</v>
+      </c>
     </row>
     <row r="10">
       <c r="E10" t="str">
@@ -543,316 +574,667 @@
       <c r="F10" t="str">
         <v>test</v>
       </c>
+      <c r="G10" t="str">
+        <v>Hiển thị thông tin mật khẩu trên text box</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Pass</v>
+      </c>
     </row>
     <row r="11">
       <c r="E11" t="str">
         <v>5. Bấm nút đăng nhập</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Test Case#</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Test Title/ Scenario</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Pre-condion</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Test Summary</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Test Steps</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Test Data</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Expected Result</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Post-condition</v>
-      </c>
-      <c r="I14" t="str">
-        <v>Actual Result</v>
-      </c>
-      <c r="J14" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Đăng nhập [Thành công]</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Người dùng đã có tài khoản trước đó</v>
-      </c>
-      <c r="E15" t="str">
-        <v>1. Vào trang đăng nhập</v>
-      </c>
-      <c r="G15" t="str">
+      <c r="G11" t="str">
         <v>http://localhost:3000/home</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J11" t="str">
         <v>Pass</v>
       </c>
     </row>
-    <row r="16">
-      <c r="E16" t="str">
-        <v>2. Bấm nút đăng nhập</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Hiển thị box nhập thông tin đăng nhập</v>
-      </c>
-      <c r="J16" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="str">
-        <v>3. Nhập tài khoản</v>
-      </c>
-      <c r="F17" t="str">
-        <v>admin@gmail.com</v>
-      </c>
-      <c r="G17" t="str">
-        <v xml:space="preserve">Hiển thị thông tin tài khoản </v>
-      </c>
-      <c r="J17" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="str">
-        <v>4. Nhập mật khẩu</v>
-      </c>
-      <c r="F18">
-        <v>123</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Hiển thị thông tin mật khẩu trên text box</v>
-      </c>
-      <c r="J18" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="str">
-        <v>5. Bấm nút đăng nhập</v>
-      </c>
-      <c r="G19" t="str">
-        <v>http://localhost:3000/home</v>
-      </c>
-      <c r="J19" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Đăng nhập [Thất bại]</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Người dùng đã có tài khoản trước đó</v>
-      </c>
-      <c r="E20" t="str">
-        <v>1. Vào trang đăng nhập</v>
-      </c>
-      <c r="G20" t="str">
-        <v>http://localhost:3000/home</v>
-      </c>
-      <c r="J20" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="str">
-        <v>2. Bấm nút đăng nhập</v>
-      </c>
-      <c r="G21" t="str">
-        <v>Hiển thị box nhập thông tin đăng nhập</v>
-      </c>
-      <c r="J21" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="str">
-        <v>3. Nhập tài khoản</v>
-      </c>
-      <c r="F22" t="str">
-        <v>admin@gmail.com</v>
-      </c>
-      <c r="G22" t="str">
-        <v>Hiển thị tài khoản trên text box</v>
-      </c>
-      <c r="J22" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="str">
-        <v>4. Nhập mật khẩu</v>
-      </c>
-      <c r="F23" t="str">
-        <v>test</v>
-      </c>
-      <c r="G23" t="str">
-        <v>Hiển thị thông tin mật khẩu trên text box</v>
-      </c>
-      <c r="J23" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="str">
-        <v>5. Bấm nút đăng nhập</v>
-      </c>
-      <c r="G24" t="str">
-        <v>http://localhost:3000/home</v>
-      </c>
-      <c r="J24" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="G25" t="str">
+    <row r="12">
+      <c r="G12" t="str">
         <v>này thiếu cái accept alert</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>Test Case#</v>
-      </c>
-      <c r="B27" t="str">
-        <v>Test Title/ Scenario</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Pre-condion</v>
-      </c>
-      <c r="D27" t="str">
-        <v>ID</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="str">
-        <v>Đăng nhập [Thành công]</v>
-      </c>
-      <c r="C28" t="str">
-        <v>Người dùng đã có tài khoản trước đó</v>
-      </c>
-      <c r="E28" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="G28" t="str">
-        <v>http://localhost:3000/home</v>
-      </c>
-      <c r="J28" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="str">
-        <v>id</v>
-      </c>
-      <c r="E29" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="F29" t="str">
-        <v xml:space="preserve">user@gmail.com, </v>
-      </c>
-      <c r="G29" t="str">
-        <v xml:space="preserve">Hiển thị thông tin tài khoản </v>
-      </c>
-      <c r="J29" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="str">
-        <v>id</v>
-      </c>
-      <c r="E30" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="F30" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="G30" t="str">
-        <v>Hiển thị thông tin mật khẩu trên text box</v>
-      </c>
-      <c r="J30" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="str">
-        <v>id</v>
-      </c>
-      <c r="E31" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="G31" t="str">
-        <v>http://localhost:3000/home</v>
-      </c>
-      <c r="J31" t="str">
-        <v>Pass</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="G7:G11"/>
+  <mergeCells count="14">
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="G2:G6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="G15" r:id="rId3"/>
-    <hyperlink ref="F17" r:id="rId4"/>
-    <hyperlink ref="G19" r:id="rId5"/>
-    <hyperlink ref="G20" r:id="rId6"/>
-    <hyperlink ref="F22" r:id="rId7"/>
-    <hyperlink ref="G24" r:id="rId8"/>
-    <hyperlink ref="G28" r:id="rId9"/>
-    <hyperlink ref="F29" r:id="rId10"/>
-    <hyperlink ref="G31" r:id="rId11"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="G11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J73"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B7:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Test Case#</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Test Title/ Scenario</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Pre-condion</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Test Summary</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Test Steps</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Test Data</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Expected Result</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Post-condition</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Actual Result</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve">Đánh giá </v>
+      </c>
+      <c r="E8" t="str">
+        <v>Đánh giá khi điền đầy đủ thông tin</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="H8" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G9" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="H11" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="str">
+        <v>5. Ấn vào trang chi tiết công việc</v>
+      </c>
+      <c r="H12" t="str">
+        <v>link(trang chi tiết công việc)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="str">
+        <v>6. Ấn chọn đánh giá sao</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Hiển thị đánh giá sao đã được chọn</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="F14" t="str">
+        <v>7. Nhập đánh giá vào ô trống</v>
+      </c>
+      <c r="G14" t="str" xml:space="preserve">
+        <v xml:space="preserve">chỗ này uy tín này_x000d_
+mọi người❤️</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Hiển thị phần đánh giá vào ô trống</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="str">
+        <v>8. Ấn đăng bài</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Hiển thị phần đánh giá đã được đăng tải</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Đánh giá _x000d_
+khi không_x000d_
+ chọn sao</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="H17" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G18" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="H20" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="str">
+        <v>5. Ấn vào trang chi tiết công việc</v>
+      </c>
+      <c r="H21" t="str">
+        <v>link(trang chi tiết công việc)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="str">
+        <v>6. Không chọn sao</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Hiển thị 5 sao mặc định</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="F23" t="str">
+        <v>7. Nhập đánh giá vào ô trống</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">chỗ này uy tín này_x000d_
+mọi người❤️</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Hiển thị phần đánh giá vào ô trống</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="str">
+        <v>8. Ấn đăng bài</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Hiển thị phần đánh giá đã được đăng tải</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="E26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Đánh giá _x000d_
+khi không_x000d_
+nhập đánh_x000d_
+giá</v>
+      </c>
+      <c r="F26" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="H26" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G27" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="H29" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="str">
+        <v>5. Ấn vào trang chi tiết công việc</v>
+      </c>
+      <c r="H30" t="str">
+        <v>link(trang chi tiết công việc)</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="str">
+        <v>6. Ấn chọn đánh giá sao</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Hiển thị đánh giá sao đã được chọn</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="str">
+        <v>7. Nhập đánh giá vào ô trống</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Không hiển thị phần đánh giá</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="str">
+        <v>8. Ấn đăng bài</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Hiển thị phần đánh giá đã được đăng tải</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="D8:D33"/>
+    <mergeCell ref="C8:C33"/>
+    <mergeCell ref="B8:B33"/>
+    <mergeCell ref="E8:E15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+    <hyperlink ref="G18" r:id="rId2"/>
+    <hyperlink ref="G27" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="B7:K33"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B7:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Test Case#</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Test Title/ Scenario</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Pre-condion</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Test Summary</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Test Steps</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Test Data</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Expected Result</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Post-condition</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Actual Result</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v>TÍnh lương</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Tính lương với điều kiện nhập đầy đủ</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="H8" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G9" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="H11" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="str">
+        <v>5. Ấn sang trang cá nhân</v>
+      </c>
+      <c r="H12" t="str">
+        <v>link(trang cá nhân)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="str">
+        <v>6. Ấn sang "Công cụ tính lương"</v>
+      </c>
+      <c r="H13" t="str">
+        <v>link(trang công cụ tính lương)</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="str">
+        <v>7. Nhập lương hằng tháng vào ô trống</v>
+      </c>
+      <c r="G14">
+        <v>1000000</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Hiển thị lương vào ô trống</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="str">
+        <v>8. Chọn số người phụ thuộc</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Hiển thị số người phụ thuộc và tiền lương tính thuế dựa theo số người phụ thuộc</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tính lương_x000d_
+với trường_x000d_
+hợp không_x000d_
+nhập lương</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="H16" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G17" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="H19" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="str">
+        <v>5. Ấn sang trang cá nhân</v>
+      </c>
+      <c r="H20" t="str">
+        <v>link(trang cá nhân)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="str">
+        <v>6. Ấn sang "Công cụ tính lương"</v>
+      </c>
+      <c r="H21" t="str">
+        <v>link(trang công cụ tính lương)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="str">
+        <v>7. Nhập lương hằng tháng vào ô trống</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Không hiển thị số lương hằng tháng</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="str">
+        <v>8. Chọn số người phụ thuộc</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Hiển thị số người phụ thuộc và 0VNĐ lương tính thuế dựa theo số người phụ thuộc</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tính lương _x000d_
+với trường hợp_x000d_
+ không chọn _x000d_
+số người phụ thuộc</v>
+      </c>
+      <c r="F24" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="H24" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G25" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="H27" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="str">
+        <v>5. Ấn sang trang cá nhân</v>
+      </c>
+      <c r="H28" t="str">
+        <v>link(trang cá nhân)</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="str">
+        <v>6. Ấn sang "Công cụ tính lương"</v>
+      </c>
+      <c r="H29" t="str">
+        <v>link(trang công cụ tính lương)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="str">
+        <v>7. Nhập lương hằng tháng vào ô trống</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Hiển thị lương vào ô trống</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="str">
+        <v>8. Chọn số người phụ thuộc</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Hiển thị số người phụ thuộc và tiền lương tính thuế dựa theo số người phụ thuộc</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="C8:C31"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="D8:D15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+    <hyperlink ref="G17" r:id="rId2"/>
+    <hyperlink ref="G25" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="B7:K31"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C9:L17"/>
   <sheetViews>
@@ -968,7 +1350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B8:K26"/>
   <sheetViews>
@@ -1189,7 +1571,1917 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:O124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>Test Case#</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Test Title/ Scenario</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Pre-condion</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Test Summary</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Test Steps</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Test Data</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Expected Result</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Post-condition</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Actual Result</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Tìm kiếm</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Tìm kiếm có bộ lọc với thông tin đầy đủ</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="H5" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G6" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H8" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H9" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="str">
+        <v>6.Ấn vào bộ lọc</v>
+      </c>
+      <c r="H10" t="str">
+        <v>link(trang bộ lọc)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" t="str">
+        <v>7.Nhập tên công việc</v>
+      </c>
+      <c r="G11" t="str">
+        <v>android developer</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Hiển thị tên công việc trong ô trống</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="str">
+        <v>8. Nhập tên công ty</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Sales Representative</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="str">
+        <v>9. Ấn vào Switch</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Hiển thị các loại công việc</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="str">
+        <v>10. Chọn loại công việc</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Front-end</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Hiển thị loại công việc đã chọn</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="str">
+        <v>11.Ấn vào Switch</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Hiển thị các vị trí</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="str">
+        <v>12. Chọn vị trí</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Intern</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Hiển thị vị trí đã chọn</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="str">
+        <v>13. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Hiển thị lương thấp nhất ô trống</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="str">
+        <v>14. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G18">
+        <v>1500</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Hiển thị lương cao nhất vào ô trống</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="str">
+        <v>15. Chọn tiền tệ</v>
+      </c>
+      <c r="G19" t="str">
+        <v xml:space="preserve">$ </v>
+      </c>
+      <c r="H19" t="str">
+        <v>Hiển thị tiền tệ đã chọn</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="str">
+        <v>16. Ấn nút "Hoàn thành"</v>
+      </c>
+      <c r="H20" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="str">
+        <v>Tìm kiếm không bộ lọc</v>
+      </c>
+      <c r="F22" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="G22" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H22" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H25" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H26" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="str">
+        <v>6. Nhập tên công việc</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Front-end</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Hiển thị tên công việc vào ô trống</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="str">
+        <v>7. Ấn "Enter"</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Hiển thị công việc đã tim kiếm</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="str">
+        <v>Tìm kiếm khi không nhập tên công việc</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="H30" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G31" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H33" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H34" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="str">
+        <v>6.Ấn vào bộ lọc</v>
+      </c>
+      <c r="H35" t="str">
+        <v>link(trang bộ lọc)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="str">
+        <v>7. Không nhập tên công việc</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Không hiển thị tên công việc vào chỗ trống</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="str">
+        <v>8. Nhập tên công ty</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Sales Representative</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="str">
+        <v>9. Ấn vào Switch</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Hiển thị các loại công việc</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="str">
+        <v>10. Chọn loại công việc</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Front-end</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Hiển thị loại công việc đã chọn</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="str">
+        <v>11.Ấn vào Switch</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Hiển thị các vị trí</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="str">
+        <v>12. Chọn vị trí</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Intern</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Hiển thị vị trí đã chọn</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="str">
+        <v>13. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G42">
+        <v>300</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Hiển thị lương thấp nhất ô trống</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" t="str">
+        <v>14. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G43">
+        <v>1500</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Hiển thị lương cao nhất vào ô trống</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="str">
+        <v>15. Chọn tiền tệ</v>
+      </c>
+      <c r="G44" t="str">
+        <v xml:space="preserve">$ </v>
+      </c>
+      <c r="H44" t="str">
+        <v>Hiển thị tiền tệ đã chọn</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="str">
+        <v>16. Ấn nút "Hoàn thành"</v>
+      </c>
+      <c r="H45" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="str">
+        <v>Tìm kiếm khi không nhập tên công ty</v>
+      </c>
+      <c r="F47" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="H47" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G48" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H50" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H51" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="str">
+        <v>6.Ấn vào bộ lọc</v>
+      </c>
+      <c r="H52" t="str">
+        <v>link(trang bộ lọc)</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="str">
+        <v>7.Nhập tên công việc</v>
+      </c>
+      <c r="G53" t="str">
+        <v>android developer</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Hiển thị tên công việc vào chỗ trống</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" t="str">
+        <v>8. Không nhập tên công ty</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Không hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" t="str">
+        <v>9. Ấn vào Switch</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Hiển thị các loại công việc</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" t="str">
+        <v>10. Chọn loại công việc</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Front-end</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Hiển thị loại công việc đã chọn</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" t="str">
+        <v>11.Ấn vào Switch</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Hiển thị các vị trí</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="str">
+        <v>12. Chọn vị trí</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Intern</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Hiển thị vị trí đã chọn</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" t="str">
+        <v>13. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G59">
+        <v>300</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Hiển thị lương thấp nhất ô trống</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" t="str">
+        <v>14. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G60">
+        <v>1500</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Hiển thị lương cao nhất vào ô trống</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" t="str">
+        <v>15. Chọn tiền tệ</v>
+      </c>
+      <c r="G61" t="str">
+        <v xml:space="preserve">$ </v>
+      </c>
+      <c r="H61" t="str">
+        <v>Hiển thị tiền tệ đã chọn</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" t="str">
+        <v>16. Ấn nút "Hoàn thành"</v>
+      </c>
+      <c r="H62" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="str">
+        <v>Tìm kiếm khi không chọn loại công việc</v>
+      </c>
+      <c r="F64" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="H64" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G65" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H67" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H68" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" t="str">
+        <v>6.Ấn vào bộ lọc</v>
+      </c>
+      <c r="H69" t="str">
+        <v>link(trang bộ lọc)</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" t="str">
+        <v>7.Nhập tên công việc</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Hiển thị tên công việc trong ô trống</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" t="str">
+        <v>8. Nhập tên công ty</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Sales Representative</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" t="str">
+        <v>9.Ấn vào Switch</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Hiển thị các vị trí</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" t="str">
+        <v>10. Chọn vị trí</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Intern</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Hiển thị vị trí đã chọn</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="str">
+        <v>11. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G74">
+        <v>300</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Hiển thị lương thấp nhất ô trống</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" t="str">
+        <v>12. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G75">
+        <v>1500</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Hiển thị lương cao nhất vào ô trống</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" t="str">
+        <v>13. Chọn tiền tệ</v>
+      </c>
+      <c r="G76" t="str">
+        <v xml:space="preserve">$ </v>
+      </c>
+      <c r="H76" t="str">
+        <v>Hiển thị tiền tệ đã chọn</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="F77" t="str">
+        <v>14. Ấn nút "Hoàn thành"</v>
+      </c>
+      <c r="H77" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="str">
+        <v>Tìm kiếm khi không chọn loại vị trí</v>
+      </c>
+      <c r="F79" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="H79" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="F80" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G80" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="F82" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H82" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="F83" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H83" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="F84" t="str">
+        <v>6.Ấn vào bộ lọc</v>
+      </c>
+      <c r="H84" t="str">
+        <v>link(trang bộ lọc)</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="F85" t="str">
+        <v>7.Nhập tên công việc</v>
+      </c>
+      <c r="G85" t="str">
+        <v>android developer</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Hiển thị tên công việc trong ô trống</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="F86" t="str">
+        <v>8. Nhập tên công ty</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Sales Representative</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="F87" t="str">
+        <v>9.Ấn vào Switch</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Hiển thị các công việc</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="F88" t="str">
+        <v>10. Chọn loại công việc</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Intern</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Hiển thị công việcđã chọn</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="F89" t="str">
+        <v>11. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G89">
+        <v>300</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Hiển thị lương thấp nhất ô trống</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="F90" t="str">
+        <v>12. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G90">
+        <v>1500</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Hiển thị lương cao nhất vào ô trống</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="F91" t="str">
+        <v>13. Chọn tiền tệ</v>
+      </c>
+      <c r="G91" t="str">
+        <v xml:space="preserve">$ </v>
+      </c>
+      <c r="H91" t="str">
+        <v>Hiển thị tiền tệ đã chọn</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="F92" t="str">
+        <v>14. Ấn nút "Hoàn thành"</v>
+      </c>
+      <c r="H92" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="E94" t="str" xml:space="preserve">
+        <v xml:space="preserve">Tìm kiếm khi không nhập 1 trong 2 lương thấp nhất vào_x000d_
+cao nhất</v>
+      </c>
+      <c r="F94" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="H94" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="F95" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G95" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="F96" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H96" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H97" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="F98" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H98" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="F99" t="str">
+        <v>6.Ấn vào bộ lọc</v>
+      </c>
+      <c r="H99" t="str">
+        <v>link(trang bộ lọc)</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="F100" t="str">
+        <v>7.Nhập tên công việc</v>
+      </c>
+      <c r="G100" t="str">
+        <v>android developer</v>
+      </c>
+      <c r="H100" t="str">
+        <v>Hiển thị tên công việc trong ô trống</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="F101" t="str">
+        <v>8. Nhập tên công ty</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Sales Representative</v>
+      </c>
+      <c r="H101" t="str">
+        <v>Hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="F102" t="str">
+        <v>9. Ấn vào Switch</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Hiển thị các loại công việc</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="F103" t="str">
+        <v>10. Chọn loại công việc</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Front-end</v>
+      </c>
+      <c r="H103" t="str">
+        <v>Hiển thị loại công việc đã chọn</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="F104" t="str">
+        <v>11.Ấn vào Switch</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Hiển thị các vị trí</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="F105" t="str">
+        <v>12. Chọn vị trí</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Intern</v>
+      </c>
+      <c r="H105" t="str">
+        <v>Hiển thị vị trí đã chọn</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="F106" t="str">
+        <v>13. Chọn tiền tệ</v>
+      </c>
+      <c r="G106" t="str">
+        <v xml:space="preserve">$ </v>
+      </c>
+      <c r="H106" t="str">
+        <v>Hiển thị tiền tệ đã chọn</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="F107" t="str">
+        <v>14. Ấn nút "Hoàn thành"</v>
+      </c>
+      <c r="H107" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="str">
+        <v>Tìm kiếm khi không chọn tiền tệ</v>
+      </c>
+      <c r="F109" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="H109" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="F110" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="G110" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="H110" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="F111" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="H111" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="F112" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="H112" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="F113" t="str">
+        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
+      </c>
+      <c r="H113" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="F114" t="str">
+        <v>6.Ấn vào bộ lọc</v>
+      </c>
+      <c r="H114" t="str">
+        <v>link(trang bộ lọc)</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="F115" t="str">
+        <v>7.Nhập tên công việc</v>
+      </c>
+      <c r="G115" t="str">
+        <v>android developer</v>
+      </c>
+      <c r="H115" t="str">
+        <v>Hiển thị tên công việc trong ô trống</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="F116" t="str">
+        <v>8. Nhập tên công ty</v>
+      </c>
+      <c r="G116" t="str">
+        <v>Sales Representative</v>
+      </c>
+      <c r="H116" t="str">
+        <v>Hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="F117" t="str">
+        <v>9. Ấn vào Switch</v>
+      </c>
+      <c r="H117" t="str">
+        <v>Hiển thị các loại công việc</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="F118" t="str">
+        <v>10. Chọn loại công việc</v>
+      </c>
+      <c r="G118" t="str">
+        <v>Front-end</v>
+      </c>
+      <c r="H118" t="str">
+        <v>Hiển thị loại công việc đã chọn</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="F119" t="str">
+        <v>11.Ấn vào Switch</v>
+      </c>
+      <c r="H119" t="str">
+        <v>Hiển thị các vị trí</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="F120" t="str">
+        <v>12. Chọn vị trí</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Intern</v>
+      </c>
+      <c r="H120" t="str">
+        <v>Hiển thị vị trí đã chọn</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="F121" t="str">
+        <v>13. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G121">
+        <v>300</v>
+      </c>
+      <c r="H121" t="str">
+        <v>Hiển thị lương thấp nhất ô trống</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="F122" t="str">
+        <v>14. Nhập lương thấp nhất</v>
+      </c>
+      <c r="G122">
+        <v>1500</v>
+      </c>
+      <c r="H122" t="str">
+        <v>Hiển thị lương cao nhất vào ô trống</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="F123" t="str">
+        <v>15. Ấn nút "Hoàn thành"</v>
+      </c>
+      <c r="H123" t="str">
+        <v>link(trang tìm kiếm)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E109:E123"/>
+    <mergeCell ref="C5:C123"/>
+    <mergeCell ref="E30:E45"/>
+    <mergeCell ref="E47:E62"/>
+    <mergeCell ref="E64:E77"/>
+    <mergeCell ref="E79:E92"/>
+    <mergeCell ref="E94:E107"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E5:E20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G22" r:id="rId2"/>
+    <hyperlink ref="G31" r:id="rId3"/>
+    <hyperlink ref="G48" r:id="rId4"/>
+    <hyperlink ref="G65" r:id="rId5"/>
+    <hyperlink ref="G80" r:id="rId6"/>
+    <hyperlink ref="G95" r:id="rId7"/>
+    <hyperlink ref="G110" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="B4:O124"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>JOBSIFT</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Pre-condition</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Dependencies:</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Test Priority</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Test Case#</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Test Title/ Scenario</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Pre-condion</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Test Summary</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Test Steps</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Test Data</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Expected Result</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Post-condition</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Actual Result</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Tạo CV</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Người dùng  phải đăng nhập vào hệ thống với tài khoản ứng viên</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Người dùng tạo CV với trường hợp điền thông tin đầy đủ</v>
+      </c>
+      <c r="E11" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="G11" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F12" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="G14" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="str">
+        <v>5. Ấn vào icon thông tin cá nhân</v>
+      </c>
+      <c r="G15" t="str">
+        <v>link(trang thông tin cá nhân)</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="str">
+        <v>6. Chọn CV</v>
+      </c>
+      <c r="G16" t="str">
+        <v>link(trang CV)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="str">
+        <v>7. Chọn nút ''Tạo CV'</v>
+      </c>
+      <c r="G17" t="str">
+        <v>link(trang tạo cv)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="str">
+        <v xml:space="preserve">8. Chọn ngôn ngữ </v>
+      </c>
+      <c r="F18" t="str">
+        <v>Tiếng Việt</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Hiển thị ngôn ngữ đã được chọn</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="str">
+        <v>9.Chọn Loại công việc</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Full-Time</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Hiển thị công việc đã được chọn</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="str">
+        <v>10.Chọn kinh nghiệm</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5 năm</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Hiển thị kinh nghiệm đã được chọn</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="str">
+        <v>11. Chọn vị trí</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Senior</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Hiển thị vị trí  đã được chọn</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="str">
+        <v>12.Chọn "next"</v>
+      </c>
+      <c r="G22" t="str">
+        <v>link(trang create CV)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="str">
+        <v>13.Chọn nút Upload Image</v>
+      </c>
+      <c r="G23" t="str">
+        <v xml:space="preserve">Hệ thống mở file hình ảnh </v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="str">
+        <v>14. Chọn hình ảnh</v>
+      </c>
+      <c r="F24" t="str">
+        <v>hinhanh.png</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Hiển thị hình ảnh đã được chọn</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="str">
+        <v>14. Ấn Choose</v>
+      </c>
+      <c r="G25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="str">
+        <v>15.Nhập họ và tên</v>
+      </c>
+      <c r="F26" t="str">
+        <v>TranDuyThanh</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Hiển thị họ và tên vào ô trống</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="str">
+        <v>16.click chọn icon lịch để nhập ngày sinh</v>
+      </c>
+      <c r="F27">
+        <v>45273</v>
+      </c>
+      <c r="G27" t="str">
+        <v xml:space="preserve">Hiển thị lịch </v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="str">
+        <v>17. Chọn confirm</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Hiển thị thời gian đã được chọn</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="str">
+        <v>18.Nhập giới thiệu bản thân</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Xin chao</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Hiển thị giới thiệu trong ô trống</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="str">
+        <v>19.Nhập Mục tiêu nghề nghiệp</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Tro thanh full-Stack-leader</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Hiển thị mục tiêu nghề nghiệp trong ô trống</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="str">
+        <v>20.Dưới kinh nghiệm làm việc chọn nút "Thêm chứng chỉ"</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Hiển thị hộp thoại "Thêm chứng chỉ"</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="str">
+        <v>21. Nhập tên công ty</v>
+      </c>
+      <c r="F32" t="str">
+        <v>huflit</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Hiển thị tên công ty trong ô trống</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="str">
+        <v>22. Nhập vị trí</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Full-stack Intern</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Hiển thị vị trí trong ô trống</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="str">
+        <v>23. Ấn vào icon "Calendar" để chọn ngày bắt đầu</v>
+      </c>
+      <c r="F34" t="str">
+        <v>13/12/2018</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Hiển thị hộp thoại calendar để chọn ngày</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="str">
+        <v>24. Chọn Confirm</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Hiển thị ngày đã được chọn</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="str">
+        <v>25. Ấn vào icon "Calendar" để chọn ngày kết thúc</v>
+      </c>
+      <c r="F36" t="str">
+        <v>13/12/2023</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Hiển thị hộp thoại calendar để chọn ngày</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="str">
+        <v>26. Chọn Confirm</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Hiển thị ngày đã được chọn</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="str">
+        <v>27. Ấn nút add</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Đóng hộp thoại và lưu thông tin vào ô trống</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="str">
+        <v>28.Dưới trình độ học vấn chọn nút"Thêm trình độ học vấn"</v>
+      </c>
+      <c r="F39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G39" t="str">
+        <v>Hiển thị hộp thoại "Thêm trình độ học vấn"</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="str">
+        <v>29. Nhập tên trường</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Huflit</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Hiển thị tên trường đã được nhập</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="str">
+        <v>30. Nhập nghành học</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Công nghệ thông tin</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Hiển thị nghành học dẫ được nhập</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="str">
+        <v>31. Nhập mô tả</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Tot nghiep loai xuat sac, GPA: 3.97</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Hiển thị mô tả đã được nhập</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="str">
+        <v>32. Ấn vào icon "Calendar" để chọn ngày bắt đầu</v>
+      </c>
+      <c r="F43" t="str">
+        <v>13/12/2023</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Hiển thị calendar để chọn ngày</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="str">
+        <v>33. Ấn chọn confirm</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Hiển thị ngày đã được chọn</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="str">
+        <v>34. Ấn vào icon "Calendar" để chọn ngày kết thúc</v>
+      </c>
+      <c r="F45" t="str">
+        <v>13/12/2023</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Hiển thị calendar để chọn ngày</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="str">
+        <v>35. Ấn chọn confirm</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Hiển thị ngày đã được chọn</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="str">
+        <v>36. Ấn add</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Đóng hộp thoại và lưu thông tin vào ô trống</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="str">
+        <v>37.Dưới hoạt động chọn nút "thêm hoạt động"</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Hiển thị hộp thoại "Thêm hoạt động"</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="str">
+        <v>38. Nhập tên tổ chức</v>
+      </c>
+      <c r="F49" t="str">
+        <v>UNESCO</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Hiển thị tên tổ chức đã được nhập</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="str">
+        <v>39. Nhập tên vị trí</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Tinh nguyen giup do nguoi Chau Phi</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Hiển thị vị trí đã được nhập</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="str">
+        <v>340. Nhập mô tả</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Giup do nguoi Chau Phi, cung cap nuoc, luong thuc</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Hiển thị mô tả đã được nhập</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="str">
+        <v>41. Ấn vào icon "Calendar" để chọn ngày bắt đầu</v>
+      </c>
+      <c r="F52" t="str">
+        <v>13/12/2023</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Hiển thị calendar để chọn ngày</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="str">
+        <v>42. Ấn chọn confirm</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Hiển thị ngày đã được chọn</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="str">
+        <v>43. Ấn vào icon "Calendar" để chọn ngày kết thúc</v>
+      </c>
+      <c r="F54" t="str">
+        <v>13/12/2023</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Hiển thị calendar để chọn ngày</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="str">
+        <v xml:space="preserve">44. Ấn chọn confirm </v>
+      </c>
+      <c r="G55" t="str">
+        <v>Hiển thị ngày đã được chọn</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="str">
+        <v>45. Ấn add</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Đóng hộp thoại và lưu thông tin vào ô trống</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="str">
+        <v>46.Dưới ngôn ngữ chọn nút "Thêm ngôn ngữ"</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Hiển thị hộp thoại "Thêm ngôn ngữ"</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="str">
+        <v>47. Nhập ngôn ngữ</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Tieng Anh</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Hiển thị ngôn ngữ đã được chọn</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="str">
+        <v xml:space="preserve">48. Chọn trình độ </v>
+      </c>
+      <c r="F59" t="str">
+        <v>Lưu loát</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Hiển thị trình độ đã được chọn</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="str">
+        <v>49. Nhập mô tả</v>
+      </c>
+      <c r="F60" t="str">
+        <v>IELTS 9.0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Hiển thị mô tả đã được chọn</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="str">
+        <v>45. Ấn icon thêm</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Đóng hộp thoại và lưu thông tin vào ô trống</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="str">
+        <v>51.Dưới chứng chỉ chọn nút"Thêm kinh nghiệm"</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Hiển thị hộp thoại "Thêm kinh nghiệm"</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="str">
+        <v>52. Nhập tên chứng chỉ</v>
+      </c>
+      <c r="F63" t="str">
+        <v>IELTS 9.0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Hiển thị tên chứng chỉ đã được nhập</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="str">
+        <v>53. Nhập mô tả</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Band 9.0(Reading 9.0, Speaking 9.0, Listening 9.0, Writing 9.0)</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Hiển thị mô tả đã được nhập</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="str">
+        <v>54. Ấn vào icon "Calendar" để chọn ngày cấp</v>
+      </c>
+      <c r="F65" t="str">
+        <v>13/12/2023</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Hiển thị calendar để chọn ngày</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="str">
+        <v>55. Ấn confirm</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Hiển thị ngày đã được chọn</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="str">
+        <v>56. Ấn add</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Đóng hộp thoại và lưu thông tin vào ô trống</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="str">
+        <v>57. Chọn nút hoàn thành</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Đóng trang create cv và hiển thị CV đã được tạo vào danh sách CV</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="str">
+        <v>Người dùng tạo CV với trường  hợp không điền thông tin</v>
+      </c>
+      <c r="E69" t="str">
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="G69" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F70" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="G72" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="str">
+        <v>5. Ấn vào icon thông tin cá nhân</v>
+      </c>
+      <c r="G73" t="str">
+        <v>link(trang thông tin cá nhân)</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="str">
+        <v>6. Chọn CV</v>
+      </c>
+      <c r="G74" t="str">
+        <v>link(trang CV)</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="str">
+        <v>7. Chọn nút ''Tạo CV'</v>
+      </c>
+      <c r="G75" t="str">
+        <v>link(trang tạo cv)</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="str">
+        <v>8. Ấn next</v>
+      </c>
+      <c r="G76" t="str">
+        <v>link(trang  Create CV)</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="str">
+        <v>9. Ấn hoàn thành</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Hệ thống thông báo "Yêu cầu điền đầy đủ thông tin"</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D69:D77"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C11:C22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D11:D68"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F70" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J96"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -1468,6 +3760,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J7"/>
@@ -1475,11 +3772,6 @@
     <mergeCell ref="D11:D23"/>
     <mergeCell ref="A11:A23"/>
     <mergeCell ref="B11:B23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1"/>
@@ -1492,602 +3784,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:O63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="4">
-      <c r="B4" t="str">
-        <v>Test Case#</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Test Title/ Scenario</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Pre-condion</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Test Summary</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Test Steps</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Test Data</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Expected Result</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Post-condition</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Actual Result</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Tìm kiếm</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Tìm kiếm có bộ lọc với thông tin đầy đủ</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1.Đăng nhập</v>
-      </c>
-      <c r="H5" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G6" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="str">
-        <v>4. Bấm nút "đăng nhập"</v>
-      </c>
-      <c r="H8" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="str">
-        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
-      </c>
-      <c r="H9" t="str">
-        <v>link(trang tìm kiếm)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="str">
-        <v>6.Ấn vào bộ lọc</v>
-      </c>
-      <c r="H10" t="str">
-        <v>link(trang bộ lọc)</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" t="str">
-        <v>7.Nhập tên công việc</v>
-      </c>
-      <c r="G11" t="str">
-        <v>android developer</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Hiển thị tên công việc trong ô trống</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="str">
-        <v>8. Nhập tên công ty</v>
-      </c>
-      <c r="G12" t="str">
-        <v>Sales Representative</v>
-      </c>
-      <c r="H12" t="str">
-        <v>Hiển thị tên công ty trong ô trống</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="str">
-        <v>9. Ấn vào Switch</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Hiển thị các loại công việc</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="str">
-        <v>10. Chọn loại công việc</v>
-      </c>
-      <c r="G14" t="str">
-        <v>Front-end</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Hiển thị loại công việc đã chọn</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="str">
-        <v>11.Ấn vào Switch</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Hiển thị các vị trí</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="str">
-        <v>12. Chọn vị trí</v>
-      </c>
-      <c r="G16" t="str">
-        <v>Intern</v>
-      </c>
-      <c r="H16" t="str">
-        <v>Hiển thị vị trí đã chọn</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="str">
-        <v>13. Nhập lương thấp nhất</v>
-      </c>
-      <c r="H17" t="str">
-        <v>Hiển thị lương thấp nhất ô trống</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="str">
-        <v>14. Nhập lương thấp nhất</v>
-      </c>
-      <c r="H18" t="str">
-        <v>Hiển thị lương cao nhất vào ô trống</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="str">
-        <v>13. Chọn tiền tệ</v>
-      </c>
-      <c r="G19" t="str">
-        <v xml:space="preserve">$ </v>
-      </c>
-      <c r="H19" t="str">
-        <v>Hiển thị tiền tệ đã chọn</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" t="str">
-        <v>14. Ấn nút "Hoàn thành"</v>
-      </c>
-      <c r="H20" t="str">
-        <v>link(trang tìm kiếm)</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="str">
-        <v>Tìm kiếm không bộ lọc</v>
-      </c>
-      <c r="F22" t="str">
-        <v>1.Đăng nhập</v>
-      </c>
-      <c r="G22" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H22" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G23" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H23" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="H24" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="str">
-        <v>4. Bấm nút "đăng nhập"</v>
-      </c>
-      <c r="H25" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="str">
-        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
-      </c>
-      <c r="H26" t="str">
-        <v>link(trang tìm kiếm)</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="str">
-        <v>6. Nhập tên công việc</v>
-      </c>
-      <c r="G27" t="str">
-        <v>Front-end</v>
-      </c>
-      <c r="H27" t="str">
-        <v>Hiển thị tên công việc vào ô trống</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="str">
-        <v>7. Ấn "Enter"</v>
-      </c>
-      <c r="H28" t="str">
-        <v>Hiển thị công việc đã tim kiếm</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="str">
-        <v>Tìm kiếm khi không nhập tên công việc</v>
-      </c>
-      <c r="F30" t="str">
-        <v>1.Đăng nhập</v>
-      </c>
-      <c r="H30" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G31" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H31" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="F32" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G32" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H32" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="F33" t="str">
-        <v>4. Bấm nút "đăng nhập"</v>
-      </c>
-      <c r="H33" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="str">
-        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
-      </c>
-      <c r="H34" t="str">
-        <v>link(trang tìm kiếm)</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" t="str">
-        <v>6.Ấn vào bộ lọc</v>
-      </c>
-      <c r="H35" t="str">
-        <v>link(trang bộ lọc)</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="F36" t="str">
-        <v>7. Không nhập tên công việc</v>
-      </c>
-      <c r="H36" t="str">
-        <v>Không hiển thị tên công việc vào chỗ trống</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="F37" t="str">
-        <v>8. Nhập tên công ty</v>
-      </c>
-      <c r="G37" t="str">
-        <v>Sales Representative</v>
-      </c>
-      <c r="H37" t="str">
-        <v>Hiển thị tên công ty trong ô trống</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" t="str">
-        <v>9. Ấn vào Switch</v>
-      </c>
-      <c r="H38" t="str">
-        <v>Hiển thị các loại công việc</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="F39" t="str">
-        <v>10. Chọn loại công việc</v>
-      </c>
-      <c r="G39" t="str">
-        <v>Front-end</v>
-      </c>
-      <c r="H39" t="str">
-        <v>Hiển thị loại công việc đã chọn</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="F40" t="str">
-        <v>11.Ấn vào Switch</v>
-      </c>
-      <c r="H40" t="str">
-        <v>Hiển thị các vị trí</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="str">
-        <v>12. Chọn vị trí</v>
-      </c>
-      <c r="G41" t="str">
-        <v>Intern</v>
-      </c>
-      <c r="H41" t="str">
-        <v>Hiển thị vị trí đã chọn</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="str">
-        <v>13. Nhập lương thấp nhất</v>
-      </c>
-      <c r="H42" t="str">
-        <v>Hiển thị lương thấp nhất ô trống</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" t="str">
-        <v>14. Nhập lương thấp nhất</v>
-      </c>
-      <c r="H43" t="str">
-        <v>Hiển thị lương cao nhất vào ô trống</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="str">
-        <v>13. Chọn tiền tệ</v>
-      </c>
-      <c r="G44" t="str">
-        <v xml:space="preserve">$ </v>
-      </c>
-      <c r="H44" t="str">
-        <v>Hiển thị tiền tệ đã chọn</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="str">
-        <v>14. Ấn nút "Hoàn thành"</v>
-      </c>
-      <c r="H45" t="str">
-        <v>link(trang tìm kiếm)</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="str">
-        <v>Tìm kiếm khi không nhập tên công ty</v>
-      </c>
-      <c r="F47" t="str">
-        <v>1.Đăng nhập</v>
-      </c>
-      <c r="H47" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="F48" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G48" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H48" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G49" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H49" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" t="str">
-        <v>4. Bấm nút "đăng nhập"</v>
-      </c>
-      <c r="H50" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="F51" t="str">
-        <v>5. Từ trang chủ, chuyển sang trang "Tìm kiếm"</v>
-      </c>
-      <c r="H51" t="str">
-        <v>link(trang tìm kiếm)</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="F52" t="str">
-        <v>6.Ấn vào bộ lọc</v>
-      </c>
-      <c r="H52" t="str">
-        <v>link(trang bộ lọc)</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="str">
-        <v>7.Nhập tên công việc</v>
-      </c>
-      <c r="G53" t="str">
-        <v>android developer</v>
-      </c>
-      <c r="H53" t="str">
-        <v>Hiển thị tên công việc vào chỗ trống</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" t="str">
-        <v>8. Không nhập tên công ty</v>
-      </c>
-      <c r="H54" t="str">
-        <v>Không hiển thị tên công ty trong ô trống</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="F55" t="str">
-        <v>9. Ấn vào Switch</v>
-      </c>
-      <c r="H55" t="str">
-        <v>Hiển thị các loại công việc</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="F56" t="str">
-        <v>10. Chọn loại công việc</v>
-      </c>
-      <c r="G56" t="str">
-        <v>Front-end</v>
-      </c>
-      <c r="H56" t="str">
-        <v>Hiển thị loại công việc đã chọn</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="F57" t="str">
-        <v>11.Ấn vào Switch</v>
-      </c>
-      <c r="H57" t="str">
-        <v>Hiển thị các vị trí</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="F58" t="str">
-        <v>12. Chọn vị trí</v>
-      </c>
-      <c r="G58" t="str">
-        <v>Intern</v>
-      </c>
-      <c r="H58" t="str">
-        <v>Hiển thị vị trí đã chọn</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="F59" t="str">
-        <v>13. Nhập lương thấp nhất</v>
-      </c>
-      <c r="H59" t="str">
-        <v>Hiển thị lương thấp nhất ô trống</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="F60" t="str">
-        <v>14. Nhập lương thấp nhất</v>
-      </c>
-      <c r="H60" t="str">
-        <v>Hiển thị lương cao nhất vào ô trống</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="F61" t="str">
-        <v>13. Chọn tiền tệ</v>
-      </c>
-      <c r="G61" t="str">
-        <v xml:space="preserve">$ </v>
-      </c>
-      <c r="H61" t="str">
-        <v>Hiển thị tiền tệ đã chọn</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="F62" t="str">
-        <v>14. Ấn nút "Hoàn thành"</v>
-      </c>
-      <c r="H62" t="str">
-        <v>link(trang tìm kiếm)</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="str">
-        <v>Tìm kiếm khi không chọn loại công việc</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E30:E45"/>
-    <mergeCell ref="E47:E62"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E5:E20"/>
-    <mergeCell ref="C5:C28"/>
-    <mergeCell ref="E22:E28"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G22" r:id="rId2"/>
-    <hyperlink ref="G31" r:id="rId3"/>
-    <hyperlink ref="G48" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="B4:O63"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2205,368 +3904,202 @@
 Đã ứng tuyển với user có email: user@test.com vào job có id 100</v>
       </c>
       <c r="E11" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F11" t="str">
-        <v>ntd@test.com, Ntd@123</v>
-      </c>
-      <c r="G11" t="str" xml:space="preserve">
-        <v xml:space="preserve">[4] Hiển thị tình trạng ứng tuyển: "Đã đạt" trên giao diện đơn ứng tuyển_x000d_
-[5] Vẫn hiển thị đơn ứng tuyển với tình trạng "Đã đạt"_x000d_
-[8] Hiển thị đơn ứng tuyển với tình trạng "Đã đạt"</v>
+        <v>1.Đăng nhập</v>
+      </c>
+      <c r="G11" t="str">
+        <v>link(trang đăng nhập)</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="str">
-        <v>2. Vào trang quản lý bài đăng</v>
+        <v>2. Nhập tài khoản</v>
       </c>
       <c r="F12" t="str">
-        <v>100, front-end developer</v>
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="str">
-        <v>3. Trên một bài đăng, ấn nút "Xem đơn ứng tuyển"</v>
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="str">
-        <v>4. Ấn nút "Đồng ý"</v>
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="G14" t="str">
+        <v>link(trang chủ)</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="str">
-        <v>5. Refresh lại trang</v>
+        <v>2. Vào trang quản lý bài đăng</v>
+      </c>
+      <c r="F15" t="str">
+        <v>100, front-end developer</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="str">
-        <v>6. Đăng nhập ứng viên vừa xác nhận thông tin ứng tuyển</v>
-      </c>
-      <c r="F16" t="str">
-        <v>user@gmail.com, 1234</v>
+        <v>3. Trên một bài đăng, ấn nút "Xem đơn ứng tuyển"</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="str">
-        <v>7. Vào trang Profile</v>
+        <v>4. Ấn nút "Đồng ý"</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="str">
+        <v>5. Refresh lại trang</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="str">
+        <v>6. Đăng nhập ứng viên vừa xác nhận thông tin ứng tuyển</v>
+      </c>
+      <c r="F19" t="str">
+        <v>user@gmail.com, 1234</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="str">
+        <v>7. Vào trang Profile</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="str">
         <v>8. Vào "Lịch sử ứng tuyển"</v>
       </c>
     </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="str">
+        <v>[Xét duyệt đơn ứng tuyển] Đồng ý đơn ứng tuyển</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Có 1 đơn ứng tuyển trên 1 job_x000d_
+Người dùng đăng nhập bằng role nhà tuyển dụng_x000d_
+Đã ứng tuyển với user có email: user@test.com vào job có id 100</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1. Đăng nhập</v>
+      </c>
+      <c r="F23" t="str">
+        <v>ntd@test.com, Ntd@123</v>
+      </c>
+      <c r="G23" t="str">
+        <v>link(Trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="str">
+        <v>2. Nhập Tài Khoản</v>
+      </c>
+      <c r="F24" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="str">
+        <v>3.Nhập Mật khẩu</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="str">
+        <v>4. Bấm nút "đăng nhập"</v>
+      </c>
+      <c r="G26" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="str">
+        <v>2. Vào trang quản lý bài đăng</v>
+      </c>
+      <c r="F27" t="str">
+        <v>100, front-end developer</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="str">
+        <v>3. Trên một bài đăng, ấn nút "Xem đơn ứng tuyển"</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="str">
+        <v>4. Ấn nút "Đồng ý"</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="str">
+        <v>5. Refresh lại trang</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="str">
+        <v>6. Đăng nhập ứng viên vừa xác nhận thông tin ứng tuyển</v>
+      </c>
+      <c r="F31" t="str">
+        <v>user@gmail.com, 1234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="str">
+        <v>7. Vào trang Profile</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="str">
+        <v>8. Vào "Lịch sử ứng tuyển"</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="G20:G24"/>
+  <mergeCells count="11">
+    <mergeCell ref="C23:C34"/>
+    <mergeCell ref="D23:D34"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C11:C22"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B23:B34"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F24" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J64"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>JOBSIFT</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Project Name:</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Ứng dụng tìm kiếm và ứng tuyển việc làm</v>
-      </c>
-      <c r="E1" t="str">
-        <v xml:space="preserve">Test Designed by: </v>
-      </c>
-      <c r="F1" t="str">
-        <v>Nguyễn Đức Vinh</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="str">
-        <v>Module Name:</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Yêu thích công việc</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Test Designed date:</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Nguyễn Đức Vinh</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>Release Version:</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="str">
-        <v xml:space="preserve">Test Executed by:  </v>
-      </c>
-      <c r="F3" t="str">
-        <v>Nguyễn Đức Vinh</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="str">
-        <v xml:space="preserve">Test Execution date:  </v>
-      </c>
-      <c r="F4" t="str">
-        <v>15/1/2024</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Pre-condition</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Dependencies:</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Test Priority</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Test Case#</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Test Title/ Scenario</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Pre-condion</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Test Summary</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Test Steps</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Test Data</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Expected Result</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Post-condition</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Actual Result</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Tạo CV</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Người dùng  phải đăng nhập vào hệ thống với tài khoản ứng viên</v>
-      </c>
-      <c r="E11" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F11" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G11" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Hiển thị "Đăng nhập thành công "và chuyển người dùng đến trang chủ _x000d_
-[2] Hiển trị trang thông tin cá nhân _x000d_
-[3] Hiển thị danh sách các CV mà bạn đã tạo_x000d_
-[4]Hiển thị trang thông tin cơ bản _x000d_
-[9}Hiển thị trang tạo Cv chi tiết_x000d_
-[15]popup lên model điền thông tin kinh nghiệm bao gồm"Tên công ty,vị trí ,ngày bắt đầu,ngày kết thúc"_x000d_
-[16]popup lên model điền trình độ học vấn bao gồm "Tên trường,nghành học ,mô tả,ngày bắt đầu ,ngày tốt nghiệp"_x000d_
-[17]popup lên model điền thông tin hoạt động bao gồm"Tên tổ chức,vị trí,mô tả,ngày bắt đầu,ngày kết thúc"_x000d_
-[18]popup lên model điền thông tin ngôn ngữ bao gồm"Ngôn ngữ ,trình độ,mô tả"_x000d_
-[19]popup lên model điền thông tin chứng chỉ bao gồm"Tên chứng chỉ,mô tả,ngày cấp"_x000d_
-[20]Đưa người dùng quay lại trang danh sách CV</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="str">
-        <v>2. Ấn vào icon thông tin cá nhân</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="str">
-        <v>3. Chọn CV</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="str">
-        <v>4. Chọn nút ''Tạo CV'</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="str">
-        <v xml:space="preserve">5. Chọn ngôn ngữ </v>
-      </c>
-      <c r="F15" t="str">
-        <v>Tiếng Việt</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="str">
-        <v>6.Chọn Loại công việc</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Full-Time</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="str">
-        <v>7.Chọn kinh nghiệm</v>
-      </c>
-      <c r="F17" t="str">
-        <v>5 năm</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="str">
-        <v xml:space="preserve">8.Vị trí </v>
-      </c>
-      <c r="F18" t="str">
-        <v>Senior</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="str">
-        <v>9.Chọn "next"</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="str">
-        <v>10.Chọn nút Upload Image</v>
-      </c>
-      <c r="F20" t="str">
-        <v>https://cdn.vox-cdn.com/thumbor/RCgw2Zj9TK-yEhBjBek52qiMBsg=/11x17:1898x1056/920x613/filters:focal(807x387:1113x693):format(webp)/cdn.vox-cdn.com/uploads/chorus_image/image/72921759/vlcsnap_2023_12_01_10h37m31s394.0.jpg</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="str">
-        <v>11.Nhập họ và tên</v>
-      </c>
-      <c r="F21" t="str">
-        <v>TranDuyThanh</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="str">
-        <v>12.click chọn icon lịch để nhập ngày sinh</v>
-      </c>
-      <c r="F22">
-        <v>45273</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="str">
-        <v>13.Nhập giới thiệu bản thân</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Xin chao</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="str">
-        <v>14.Nhập Mục tiêu nghề nghiệp</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Tro thanh full-Stack-leader</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="str">
-        <v>15.Dưới kinh nghiệm làm việc chọn nút "Thêm chứng chỉ"</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="str">
-        <v>16.Dưới trình độ học vấn chọn nút"Thêm trình độ học vấn"</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="str">
-        <v>17.Dưới hoạt động chọn nút "thêm hoạt động"</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="str">
-        <v>18.Dưới ngôn ngữ chọn nút "Thêm ngôn ngữ"</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="str">
-        <v>19.Dưới chứng chỉ chọn nút"Thêm kinh nghiệm"</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="str">
-        <v>20. Chọn nút hoàn thành</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="G11:G24"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F20" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J58"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A10:J80"/>
   <sheetViews>
@@ -3218,31 +4751,31 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A25:A38"/>
+    <mergeCell ref="B25:B38"/>
+    <mergeCell ref="C25:C38"/>
+    <mergeCell ref="D25:D38"/>
+    <mergeCell ref="G25:G38"/>
+    <mergeCell ref="D11:D24"/>
+    <mergeCell ref="C11:C24"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="G11:G24"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="B53:B66"/>
+    <mergeCell ref="C53:C66"/>
+    <mergeCell ref="D53:D66"/>
+    <mergeCell ref="G53:G66"/>
+    <mergeCell ref="A39:A52"/>
+    <mergeCell ref="B39:B52"/>
+    <mergeCell ref="C39:C52"/>
+    <mergeCell ref="D39:D52"/>
+    <mergeCell ref="G39:G52"/>
     <mergeCell ref="A67:A80"/>
     <mergeCell ref="B67:B80"/>
     <mergeCell ref="C67:C80"/>
     <mergeCell ref="D67:D80"/>
     <mergeCell ref="G67:G80"/>
-    <mergeCell ref="A39:A52"/>
-    <mergeCell ref="B39:B52"/>
-    <mergeCell ref="C39:C52"/>
-    <mergeCell ref="D39:D52"/>
-    <mergeCell ref="G39:G52"/>
-    <mergeCell ref="A53:A66"/>
-    <mergeCell ref="B53:B66"/>
-    <mergeCell ref="C53:C66"/>
-    <mergeCell ref="D53:D66"/>
-    <mergeCell ref="G53:G66"/>
-    <mergeCell ref="D11:D24"/>
-    <mergeCell ref="C11:C24"/>
-    <mergeCell ref="B11:B24"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="G11:G24"/>
-    <mergeCell ref="A25:A38"/>
-    <mergeCell ref="B25:B38"/>
-    <mergeCell ref="C25:C38"/>
-    <mergeCell ref="D25:D38"/>
-    <mergeCell ref="G25:G38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1"/>
@@ -3258,7 +4791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7:K15"/>
   <sheetViews>
@@ -5524,100 +7057,31 @@
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="A184:A192"/>
-    <mergeCell ref="B184:B192"/>
-    <mergeCell ref="C184:C192"/>
-    <mergeCell ref="D184:D192"/>
-    <mergeCell ref="F184:F192"/>
-    <mergeCell ref="G184:G192"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="D179:D183"/>
-    <mergeCell ref="F179:F183"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="C162:C169"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="F162:F169"/>
-    <mergeCell ref="G162:G169"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="B170:B178"/>
-    <mergeCell ref="C170:C178"/>
-    <mergeCell ref="D170:D178"/>
-    <mergeCell ref="F170:F178"/>
-    <mergeCell ref="G170:G178"/>
-    <mergeCell ref="A150:A169"/>
-    <mergeCell ref="B150:B169"/>
-    <mergeCell ref="C150:C154"/>
-    <mergeCell ref="D150:D154"/>
-    <mergeCell ref="F150:F154"/>
-    <mergeCell ref="G150:G154"/>
-    <mergeCell ref="C155:C161"/>
-    <mergeCell ref="D155:D161"/>
-    <mergeCell ref="F155:F161"/>
-    <mergeCell ref="G155:G161"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="G147:G149"/>
-    <mergeCell ref="A136:A146"/>
-    <mergeCell ref="B136:B146"/>
-    <mergeCell ref="C136:C146"/>
-    <mergeCell ref="D136:D141"/>
-    <mergeCell ref="F136:F146"/>
-    <mergeCell ref="G136:G146"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B135"/>
-    <mergeCell ref="C126:C135"/>
-    <mergeCell ref="D126:D135"/>
-    <mergeCell ref="F126:F135"/>
-    <mergeCell ref="G126:G135"/>
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="B117:B125"/>
-    <mergeCell ref="C117:C125"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="F117:F125"/>
-    <mergeCell ref="G117:G125"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="B107:B116"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="F107:F116"/>
-    <mergeCell ref="G107:G116"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="D100:D106"/>
-    <mergeCell ref="F100:F106"/>
-    <mergeCell ref="G100:G106"/>
-    <mergeCell ref="A84:A99"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="C84:C99"/>
-    <mergeCell ref="G84:G99"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="B48:B62"/>
-    <mergeCell ref="C48:C62"/>
-    <mergeCell ref="G48:G62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="G63:G67"/>
-    <mergeCell ref="G40:G47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="F32:F39"/>
-    <mergeCell ref="G32:G39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A68:A83"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="C68:C83"/>
-    <mergeCell ref="G68:G83"/>
+    <mergeCell ref="A249:A262"/>
+    <mergeCell ref="B249:B262"/>
+    <mergeCell ref="C249:C262"/>
+    <mergeCell ref="D249:D262"/>
+    <mergeCell ref="G249:G262"/>
+    <mergeCell ref="A221:A234"/>
+    <mergeCell ref="B221:B234"/>
+    <mergeCell ref="C221:C234"/>
+    <mergeCell ref="D221:D234"/>
+    <mergeCell ref="G221:G234"/>
+    <mergeCell ref="A235:A248"/>
+    <mergeCell ref="B235:B248"/>
+    <mergeCell ref="C235:C248"/>
+    <mergeCell ref="D235:D248"/>
+    <mergeCell ref="G235:G248"/>
+    <mergeCell ref="A193:A206"/>
+    <mergeCell ref="B193:B206"/>
+    <mergeCell ref="C193:C206"/>
+    <mergeCell ref="D193:D206"/>
+    <mergeCell ref="G193:G206"/>
+    <mergeCell ref="A207:A220"/>
+    <mergeCell ref="B207:B220"/>
+    <mergeCell ref="C207:C220"/>
+    <mergeCell ref="D207:D220"/>
+    <mergeCell ref="G207:G220"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J7"/>
@@ -5642,31 +7106,100 @@
     <mergeCell ref="C40:C47"/>
     <mergeCell ref="D40:D47"/>
     <mergeCell ref="F40:F47"/>
-    <mergeCell ref="A193:A206"/>
-    <mergeCell ref="B193:B206"/>
-    <mergeCell ref="C193:C206"/>
-    <mergeCell ref="D193:D206"/>
-    <mergeCell ref="G193:G206"/>
-    <mergeCell ref="A207:A220"/>
-    <mergeCell ref="B207:B220"/>
-    <mergeCell ref="C207:C220"/>
-    <mergeCell ref="D207:D220"/>
-    <mergeCell ref="G207:G220"/>
-    <mergeCell ref="A249:A262"/>
-    <mergeCell ref="B249:B262"/>
-    <mergeCell ref="C249:C262"/>
-    <mergeCell ref="D249:D262"/>
-    <mergeCell ref="G249:G262"/>
-    <mergeCell ref="A221:A234"/>
-    <mergeCell ref="B221:B234"/>
-    <mergeCell ref="C221:C234"/>
-    <mergeCell ref="D221:D234"/>
-    <mergeCell ref="G221:G234"/>
-    <mergeCell ref="A235:A248"/>
-    <mergeCell ref="B235:B248"/>
-    <mergeCell ref="C235:C248"/>
-    <mergeCell ref="D235:D248"/>
-    <mergeCell ref="G235:G248"/>
+    <mergeCell ref="G40:G47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="F32:F39"/>
+    <mergeCell ref="G32:G39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A68:A83"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="C68:C83"/>
+    <mergeCell ref="G68:G83"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="C84:C99"/>
+    <mergeCell ref="G84:G99"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="C48:C62"/>
+    <mergeCell ref="G48:G62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="G63:G67"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="F107:F116"/>
+    <mergeCell ref="G107:G116"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="B100:B106"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="D100:D106"/>
+    <mergeCell ref="F100:F106"/>
+    <mergeCell ref="G100:G106"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B135"/>
+    <mergeCell ref="C126:C135"/>
+    <mergeCell ref="D126:D135"/>
+    <mergeCell ref="F126:F135"/>
+    <mergeCell ref="G126:G135"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="C117:C125"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="F117:F125"/>
+    <mergeCell ref="G117:G125"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="G147:G149"/>
+    <mergeCell ref="A136:A146"/>
+    <mergeCell ref="B136:B146"/>
+    <mergeCell ref="C136:C146"/>
+    <mergeCell ref="D136:D141"/>
+    <mergeCell ref="F136:F146"/>
+    <mergeCell ref="G136:G146"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="C162:C169"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="F162:F169"/>
+    <mergeCell ref="G162:G169"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="B170:B178"/>
+    <mergeCell ref="C170:C178"/>
+    <mergeCell ref="D170:D178"/>
+    <mergeCell ref="F170:F178"/>
+    <mergeCell ref="G170:G178"/>
+    <mergeCell ref="A150:A169"/>
+    <mergeCell ref="B150:B169"/>
+    <mergeCell ref="C150:C154"/>
+    <mergeCell ref="D150:D154"/>
+    <mergeCell ref="F150:F154"/>
+    <mergeCell ref="G150:G154"/>
+    <mergeCell ref="C155:C161"/>
+    <mergeCell ref="D155:D161"/>
+    <mergeCell ref="F155:F161"/>
+    <mergeCell ref="G155:G161"/>
+    <mergeCell ref="A184:A192"/>
+    <mergeCell ref="B184:B192"/>
+    <mergeCell ref="C184:C192"/>
+    <mergeCell ref="D184:D192"/>
+    <mergeCell ref="F184:F192"/>
+    <mergeCell ref="G184:G192"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="D179:D183"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="G179:G183"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F201" r:id="rId1"/>
@@ -5684,7 +7217,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K352"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Test Case#</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Test Title/ Scenario</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Pre-condion</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Test Summary</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Test Steps</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Test Data</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Expected Result</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Post-condition</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Actual Result</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Đăng nhập [Thành công]</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Người dùng đã có tài khoản trước đó</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1. Vào trang đăng nhập</v>
+      </c>
+      <c r="G2" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="str">
+        <v>2. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Hiển thị box nhập thông tin đăng nhập</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="str">
+        <v>3. Nhập tài khoản</v>
+      </c>
+      <c r="F4" t="str">
+        <v>duy@gmail.com</v>
+      </c>
+      <c r="G4" t="str">
+        <v xml:space="preserve">Hiển thị thông tin tài khoản </v>
+      </c>
+      <c r="J4" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="str">
+        <v>4. Nhập mật khẩu</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Duy12345</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Hiển thị thông tin mật khẩu trên text box</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="str">
+        <v>5. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G6" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Đăng nhập [Thất bại]</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Người dùng đã có tài khoản trước đó</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1. Vào trang đăng nhập</v>
+      </c>
+      <c r="G7" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="str">
+        <v>2. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Hiển thị box nhập thông tin đăng nhập</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="str">
+        <v>3. Nhập tài khoản</v>
+      </c>
+      <c r="F9" t="str">
+        <v>admin@gmail.com</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Hiển thị tài khoản trên text box</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="str">
+        <v>4. Nhập mật khẩu</v>
+      </c>
+      <c r="F10" t="str">
+        <v>test</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Hiển thị thông tin mật khẩu trên text box</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="str">
+        <v>5. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G11" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Pass</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="G11" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J11"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5703,21 +7440,18 @@
         <v xml:space="preserve">Test Designed by: </v>
       </c>
       <c r="F1" t="str">
-        <v>Trần Duy Thanh</v>
+        <v>Huỳnh Vũ Anh Tuấn</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="str">
         <v>Module Name:</v>
       </c>
-      <c r="C2" t="str">
-        <v>Mua kim cương - Thanh toán</v>
-      </c>
       <c r="E2" t="str">
         <v>Test Designed date:</v>
       </c>
       <c r="F2" t="str">
-        <v>Trần Duy Thanh</v>
+        <v>Huỳnh Vũ Anh Tuấn</v>
       </c>
     </row>
     <row r="3">
@@ -5731,7 +7465,7 @@
         <v xml:space="preserve">Test Executed by:  </v>
       </c>
       <c r="F3" t="str">
-        <v>Trần Duy Thanh</v>
+        <v>Huỳnh Vũ Anh Tuấn</v>
       </c>
     </row>
     <row r="4">
@@ -5739,7 +7473,7 @@
         <v xml:space="preserve">Test Execution date:  </v>
       </c>
       <c r="F4" t="str">
-        <v>13/1/2024</v>
+        <v>15/1/2024</v>
       </c>
     </row>
     <row r="6">
@@ -5751,9 +7485,6 @@
       <c r="A7" t="str">
         <v>Dependencies:</v>
       </c>
-      <c r="B7" t="str">
-        <v>Mua KC phụ thuộc thanh toán</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5783,376 +7514,222 @@
         <v>Expected Result</v>
       </c>
       <c r="H10" t="str">
-        <v>Post-condition</v>
+        <v>Actual Result</v>
       </c>
       <c r="I10" t="str">
-        <v>Actual Result</v>
+        <v>Status</v>
       </c>
       <c r="J10" t="str">
-        <v>Status</v>
-      </c>
-      <c r="K10" t="str">
         <v>Notes</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
+    <row r="11">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v xml:space="preserve">Mua kim cương (199KC, 599KC, 999KC) </v>
+        <v>Chat với ứng viên</v>
       </c>
       <c r="C11" t="str">
-        <v>Đăng nhập vào ứng dụng với role là user, và có số dư tài khoản đủ để mua KC</v>
+        <v>Đăng nhập với role nhà tuyển dụng và chat với ứng viên</v>
       </c>
       <c r="D11" t="str">
-        <v>Mua thành công</v>
+        <v>Chat thành công</v>
       </c>
       <c r="E11" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F11" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G11" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Có hiển thị: đăng nhập thành công =&gt; Chuyển người dùng sang trang chủ._x000d_
-[2] Chuyển người dùng sang trang danh sách gói Mua KC_x000d_
-[3] Chuyển người dùng sang trang thông tin chi tiết gói mua + điều khoản_x000d_
-[5] Có hiển thị dialog thông tin thanh toán_x000d_
-[7] Có thông báo: "Thanh toán thành công" và trực tiếp cộng số kim cương tương ứng và hiển thị lên giao diện.</v>
+        <v>1. Vào trang đăng nhập</v>
+      </c>
+      <c r="G11" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="str">
-        <v>2. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
+        <v>2. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Hiển thị box nhập thông tin đăng nhập</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="str">
-        <v>3. Nhấn vào mua kim cương gói 199KC</v>
-      </c>
-      <c r="F13">
-        <v>199</v>
+        <v>3. Nhập tài khoản</v>
+      </c>
+      <c r="G13" t="str">
+        <v xml:space="preserve">Hiển thị thông tin tài khoản </v>
+      </c>
+      <c r="J13" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="str">
-        <v>4. Bấm xác nhận mua</v>
+        <v>4. Nhập mật khẩu</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Hiển thị thông tin mật khẩu trên text box</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="str">
-        <v>5. Bấm thanh toán với số tiền 100.000đ</v>
-      </c>
-      <c r="F15">
-        <v>100000</v>
+        <v>5. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G15" t="str">
+        <v>http://localhost:3000/home</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="str">
-        <v>6. Nhập thông tin thanh toán</v>
-      </c>
-      <c r="F16" t="str">
-        <v>3948596847584750, 02/2003, 333</v>
+        <v>6.Ấn sang trang chat</v>
+      </c>
+      <c r="G16" t="str">
+        <v>link(trang chat)</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="str">
-        <v>7. Bấm thanh toán</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="str" xml:space="preserve">
-        <v xml:space="preserve">Đăng nhập vào ứng dụng với role là user _x000d_
-Người dùng phải có đủ số dư để mua KC</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Không nhập thông tin thanh toán</v>
-      </c>
+        <v>3. Chọn ứng viên để trả lời tin nhắn</v>
+      </c>
+      <c r="G17" t="str">
+        <v>link(trang chat với ứng viên)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="str">
+        <v>4. Nhấn vào thanh gõ text</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="str">
-        <v>1. Đăng nhập</v>
+        <v>5. Nhập text chat với ứng viên</v>
       </c>
       <c r="F19" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G19" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Có hiển thị: đăng nhập thành công =&gt; Chuyển người dùng sang trang chủ._x000d_
-[2] Chuyển người dùng sang trang danh sách gói Mua KC_x000d_
-[3] Chuyển người dùng sang trang thông tin chi tiết gói mua + điều khoản_x000d_
-[5] Có hiển thị dialog thông tin thanh toán_x000d_
-[6] Dialog thanh toán dưới ô nhập STK hiển thị màu đỏ cảnh báo người dùng:  "Vui lòng nhập số tài khoản", "Vui lòng nhập ngày tạo thẻ", "Vui lòng nhập CCV" và không cho người dùng tiếp tục trừ khi thực hiện điền đúng thông tin yêu cầu nút thanh toán disable.</v>
+        <v>Chào em, em cần giúp gì</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Hiển thị text vào ô trống</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="str">
-        <v>2. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
+        <v>6. Bấm nút gửi</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Hiển thị tin nhắn lên màn hình</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="str">
-        <v>3. Nhấn vào mua kim cương gói 199KC</v>
-      </c>
-      <c r="F21">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>7. Load lại trang chat</v>
+      </c>
+      <c r="G21" t="str">
+        <v>link(trang chat với ứng viên)</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Chat với ứng viên</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Đăng nhập với role nhà tuyển dụng và chat với ứng viên</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Nhà tuyển dụng không gửi được tin nhắn do đường truyền lỗi, chat thất bại</v>
+      </c>
       <c r="E22" t="str">
-        <v>4. Bấm xác nhận mua</v>
+        <v>1. Đăng nhập</v>
+      </c>
+      <c r="F22" t="str">
+        <v>user@gmail.com, Tranduy123312</v>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
+        <v xml:space="preserve">[2]: Hiển thị trang chat chính_x000d_
+[3]: Hiển thị khung chat riêng với ứng viên nhưng các tin nhắn cũ(nếu có) không thể loag lên _x000d_
+[4]: Hiển thị con trỏ chuột dưới thanh input_x000d_
+[5]: Hiển thị nội dung dưới thanh input_x000d_
+[6]: Sever gọi API Web socket gửi tín hiệu sau sau đó render ra component với nội dung nhà tuyển dụng đã nhập nhưng tin nhắn không được gởi đến ứng viên và không được cập nhật vào database_x000d_
+[7]: Hiển thị khung chat với ứng viên với nội dung đã gửi ở dưới cùng</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="str">
-        <v>5. Bấm thanh toán với số tiền 100.000đ</v>
-      </c>
-      <c r="F23">
-        <v>100000</v>
+        <v>2. Bấm vào mục chat</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="str">
-        <v>6. Bấm thanh toán</v>
-      </c>
-    </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Đăng nhập vào ứng dụng với role là user, người dùng phải có tài khoản ngân hàng</v>
-      </c>
-      <c r="D25" t="str">
-        <v>Không nhập một trong các thông tin thanh toán</v>
-      </c>
-      <c r="E25" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F25" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G25" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Có hiển thị: đăng nhập thành công =&gt; Chuyển người dùng sang trang chủ._x000d_
-[2] Chuyển người dùng sang trang danh sách gói Mua KC_x000d_
-[3] Chuyển người dùng sang trang thông tin chi tiết gói mua + điều khoản_x000d_
-[5] Có hiển thị dialog thông tin thanh toán_x000d_
-[7] Có thông báo: Hiển thị cảnh báo màu đỏ dưới ô nhập CCV "Vui lòng nhập CCV" và nút thanh toán đang ở trạng thái disable</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="str">
-        <v>2. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="str">
-        <v>3. Nhấn vào mua kim cương gói 199KC</v>
-      </c>
-      <c r="F27">
-        <v>199</v>
+        <v>3. Bấm vào phần chat trả lời câu hởi của ứng viên</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="str">
-        <v>4. Bấm xác nhận mua</v>
+        <v>4. Nhấn vào thanh gõ text</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="str">
-        <v>5. Bấm thanh toán với số tiền 100.000đ</v>
-      </c>
-      <c r="F29">
-        <v>100000</v>
+        <v>5. Nhập text chat với ứng viên</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Chào em, em cần giúp gì</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="str">
-        <v>6. Nhập thiếu thông tin CCV</v>
-      </c>
-      <c r="F30" t="str">
-        <v>3948596847584750, 02/2003</v>
+        <v>6. Bấm nút gửi</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="str">
-        <v>7. Bấm thanh toán</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="C32" t="str">
-        <v>Đăng nhập vào ứng dụng với role là user, có đủ số dư và đang truy cập internet</v>
-      </c>
-      <c r="D32" t="str">
-        <v>Đang thanh toán với Dialog thanh toán bấm nút hủy</v>
-      </c>
-      <c r="E32" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F32" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G32" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Có hiển thị: đăng nhập thành công =&gt; Chuyển người dùng sang trang chủ._x000d_
-[2] Chuyển người dùng sang trang danh sách gói Mua KC_x000d_
-[3] Chuyển người dùng sang trang thông tin chi tiết gói mua + điều khoản_x000d_
-[5] Có hiển thị dialog thông tin thanh toán_x000d_
-[7] Không hiển thị: chỉ hủy tác vụ thanh toán đó đi, không có thay đổi gì về mặt GUI</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="str">
-        <v>2. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="str">
-        <v>3. Nhấn vào mua kim cương gói 199KC</v>
-      </c>
-      <c r="F34">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="str">
-        <v>4. Bấm xác nhận mua</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="str">
-        <v>5. Bấm thanh toán với số tiền 100.000đ</v>
-      </c>
-      <c r="F36">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="str">
-        <v>6. Nhập thông tin thanh toán</v>
-      </c>
-      <c r="F37" t="str">
-        <v>3948596847584750, 02/2003, 333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="str">
-        <v>7. Bấm nút hủy</v>
-      </c>
-    </row>
-    <row r="40" xml:space="preserve">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Đăng nhập vào ứng dụng với role là user, và người dùng phải có đủ số dư trong tài khoản để thanh toán</v>
-      </c>
-      <c r="D40" t="str">
-        <v>Tài khoản không đủ tiền thanh  toán</v>
-      </c>
-      <c r="E40" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F40" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G40" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Có hiển thị: đăng nhập thành công =&gt; Chuyển người dùng sang trang chủ._x000d_
-[2] Chuyển người dùng sang trang danh sách gói Mua KC_x000d_
-[3] Chuyển người dùng sang trang thông tin chi tiết gói mua + điều khoản_x000d_
-[5] Có hiển thị dialog thông tin thanh toán_x000d_
-[7] Server trả về mã lỗi 402 sau đó hiển thị thông báo: "Tài khoản của bạn không đủ để thực hiện tác vụ này"</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="str">
-        <v>2. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="str">
-        <v>3. Nhấn vào mua kim cương gói 199KC</v>
-      </c>
-      <c r="F42">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="str">
-        <v>4. Bấm xác nhận mua</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="str">
-        <v>5. Bấm thanh toán với số tiền 100.000đ</v>
-      </c>
-      <c r="F44">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="str">
-        <v>6. Nhập thông tin thanh toán</v>
-      </c>
-      <c r="F45" t="str">
-        <v>3948596847584750, 02/2003, 333</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="str">
-        <v>7. Bấm nút thanh toán</v>
+        <v>7. Load lại trang chat</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="D32:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="B11:B47"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E17:E18"/>
+  <mergeCells count="13">
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="D19:D24"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="G40:G47"/>
-    <mergeCell ref="G32:G39"/>
-    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="G22:G31"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="D11:D21"/>
+    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F19" r:id="rId2"/>
-    <hyperlink ref="F25" r:id="rId3"/>
-    <hyperlink ref="F32" r:id="rId4"/>
-    <hyperlink ref="F40" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId1"/>
+    <hyperlink ref="G15" r:id="rId2"/>
+    <hyperlink ref="F22" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K352"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K42"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6192,7 +7769,7 @@
         <v>Notes</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6203,464 +7780,680 @@
         <v>Phải đăng nhập với tư cách là nhà tuyển dụng</v>
       </c>
       <c r="E2" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F2" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G2" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Refresh trang hiện tại với nút "Đăng bài" ở trên header_x000d_
-[2] Hiển thị hộp thoại ứng tuyển_x000d_
-[14] Hiển thị alert "Đăng bài thàng công" và đóng hộp thoại_x000d_
-[15] Hiển thị bài đăng vừa được đăng tải ở đầu danh sách</v>
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G2" t="str">
+        <v>link</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="str">
-        <v>2. Ấn nút "Đăng bài" ở thanh header</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F3" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" t="str">
-        <v>3. Điền tiêu đề</v>
+        <v>3. Nhập mật khẩu</v>
       </c>
       <c r="F4" t="str">
-        <v>Back-end Developer</v>
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" t="str">
-        <v>4. Chọn loại công việc</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Full-time</v>
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G5" t="str">
+        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" t="str">
-        <v>5. Nhập địa chỉ</v>
-      </c>
-      <c r="F6" t="str">
-        <v>123 Test, Test, Test</v>
+        <v>5. Chuyển sang trang hồ sơ</v>
+      </c>
+      <c r="G6" t="str">
+        <v>link(trang hồ sơ)</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" t="str">
-        <v>6. Nhập mức lương thấp nhất</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
+        <v>6. Ấn nút "Đăng tải" ở thanh header</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Hiển thị hộp thoại nhập thông tin</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="str">
-        <v>7. Nhập mức lương cao nhất</v>
-      </c>
-      <c r="F8">
-        <v>2000</v>
+        <v>7. Điền tiêu đề</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Back-end Developer</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Hiển thị tiêu đề trong ô tróng</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="str">
-        <v>8. Nhập tiền tệ</v>
+        <v>8. Chọn loại công việc</v>
       </c>
       <c r="F9" t="str">
-        <v>$</v>
+        <v>Full-time</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Hiển thị loại công việc trong ô trống</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="str">
-        <v>9. Chọn vị trí</v>
+        <v>9. Nhập địa chỉ</v>
       </c>
       <c r="F10" t="str">
-        <v>Fresher</v>
+        <v>123 Test, Test, Test</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Hiển thị địa chỉ trong ô trống</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="str">
-        <v>10. Chọn hạn nộp</v>
+        <v>10. Nhập mức lương thấp nhất</v>
       </c>
       <c r="F11">
-        <v>45351</v>
+        <v>100</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Hiển thị mức lương trong ô trống</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="str">
-        <v>11. Chọn ngành nghề</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Back-end</v>
+        <v>11. Nhập mức lương cao nhất</v>
+      </c>
+      <c r="F12">
+        <v>2000</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Hiển thị mức lương trong ô trống</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="str">
-        <v>12. Nhập kinh nghiệm yêu cầu</v>
+        <v>12. Nhập tiền tệ</v>
       </c>
       <c r="F13" t="str">
-        <v>1 năm</v>
+        <v>$</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Hiển thị tiền tệ trong ô trống</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="str">
-        <v>13. Nhập miêu tả</v>
+        <v>13. Chọn vị trí</v>
       </c>
       <c r="F14" t="str">
-        <v>Back-end developer</v>
+        <v>Fresher</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Hiển thị vị trí đã được chọn</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="str">
-        <v>14. Ấn "Đăng tải"</v>
+        <v>14. Chọn hạn nộp</v>
+      </c>
+      <c r="F15">
+        <v>45351</v>
+      </c>
+      <c r="G15" t="str">
+        <v xml:space="preserve">Hiển thị calendar </v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="str">
-        <v>15. Ấn vào nút "Bài đăng" ở thanh bên</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Đăng bài khi không nhập gì cả</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Phải đăng nhập với tư cách là nhà tuyển dụng</v>
-      </c>
+        <v>15. Chọn confirm</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Hiển thị thời gian được chọn</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="str">
-        <v>1. Đăng nhập</v>
+        <v>15. Chọn ngành nghề</v>
       </c>
       <c r="F17" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G17" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Refresh trang hiện tại với nút "Đăng bài" ở trên header_x000d_
-[2] Hiển thị hộp thoại ứng tuyển_x000d_
-[3] Hiển thị alert "Vui lòng nhập đầy đủ thông tin" _x000d_
-[4] Đóng hộp thoại lại_x000d_
-[5] Không có hiển thị bài đăng rỗng</v>
+        <v>Back-end</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Hiển thị ngành nghề đã chọn</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="str">
-        <v>2. Ấn nút "Đăng bài" ở thanh header</v>
+        <v>16. Nhập kinh nghiệm yêu cầu</v>
+      </c>
+      <c r="F18" t="str">
+        <v>1 năm</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Hiển thị kinh nghiệm trong ô trống</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="str">
-        <v>3. Ấn "Đăng tải"</v>
+        <v>17. Nhập miêu tả</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Back-end developer</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Hiển thị mô tả trong ô trống</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="str">
-        <v>4. Ấn nút "x" ở góc trên bên phải của hộp thoại</v>
+        <v>18. Ấn "Đăng tải"</v>
+      </c>
+      <c r="G20" t="str">
+        <v xml:space="preserve">Đóng hộp thoại </v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="str">
-        <v>5 Ấn vài nút "Bài đăng" ở thanh bên</v>
-      </c>
-    </row>
-    <row r="22" xml:space="preserve">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Đăng bài khi nhập mức lương cao nhất thấp hơn mức lương thấp nhất</v>
-      </c>
-      <c r="C22" t="str">
+        <v xml:space="preserve">19. Chuyển sang bài đăng </v>
+      </c>
+      <c r="G21" t="str">
+        <v>link(trang bài đăng)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Đăng bài khi không nhập gì cả</v>
+      </c>
+      <c r="C23" t="str">
         <v>Phải đăng nhập với tư cách là nhà tuyển dụng</v>
       </c>
-      <c r="E22" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F22" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G22" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Refresh trang hiện tại với nút "Đăng bài" ở trên header_x000d_
-[2] Hiển thị hộp thoại ứng tuyển_x000d_
-[14] Hiển thị hộp thoại "Mức lương thấp nhất phải nhỏ hơn mức lương cao nhất"_x000d_
-[15] Đóng hộp thoại lại_x000d_
-[16] Không hiển thị bài đăng vừa được đăng tải ở đầu danh sách</v>
-      </c>
-    </row>
-    <row r="23">
       <c r="E23" t="str">
-        <v>2. Ấn nút "Đăng bài" ở thanh header</v>
+        <v>1. Vào ứng dụng</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="str">
-        <v>3. Điền tiêu đề</v>
+        <v>2. Nhập tài khoản</v>
       </c>
       <c r="F24" t="str">
-        <v>Back-end Developer</v>
+        <v>user@gmail.com</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="str">
-        <v>4. Chọn loại công việc</v>
+        <v>3. Nhập mật khẩu</v>
       </c>
       <c r="F25" t="str">
-        <v>Full-time</v>
+        <v>Tranduy123312</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="str">
-        <v>5. Nhập địa chỉ</v>
-      </c>
-      <c r="F26" t="str">
-        <v>123 Test, Test, Test</v>
+        <v>4. Bấm nút đăng nhập</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="str">
-        <v>6. Nhập mức lương thấp nhất</v>
-      </c>
-      <c r="F27">
-        <v>2000</v>
+        <v>5. Ấn nút "Đăng tải" ở thanh header</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="str">
-        <v>7. Nhập mức lương cao nhất</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="str">
-        <v>8. Nhập tiền tệ</v>
-      </c>
-      <c r="F29" t="str">
-        <v>$</v>
+        <v>6. Ấn "Đăng tải"</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Đăng bài khi nhập mức lương cao nhất thấp hơn mức lương thấp nhất</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Phải đăng nhập với tư cách là nhà tuyển dụng</v>
+      </c>
       <c r="E30" t="str">
-        <v>9. Chọn vị trí</v>
-      </c>
-      <c r="F30" t="str">
-        <v>Fresher</v>
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G30" t="str">
+        <v>link</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="str">
-        <v>10. Chọn hạn nộp</v>
-      </c>
-      <c r="F31">
-        <v>45351</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F31" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="str">
-        <v>11. Chọn ngành nghề</v>
+        <v>3. Nhập mật khẩu</v>
       </c>
       <c r="F32" t="str">
-        <v>Back-end</v>
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="str">
-        <v>12. Nhập kinh nghiệm yêu cầu</v>
-      </c>
-      <c r="F33" t="str">
-        <v>1 năm</v>
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G33" t="str">
+        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="str">
-        <v>13. Nhập miêu tả</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Back-end developer</v>
+        <v>5. Chuyển sang trang hồ sơ</v>
+      </c>
+      <c r="G34" t="str">
+        <v>link(trang hồ sơ)</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="str">
-        <v>14. Ấn "Đăng tải"</v>
+        <v>6. Ấn nút "Đăng tải" ở thanh header</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Hiển thị hộp thoại nhập thông tin</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="str">
-        <v>15. Ấn nút "x" ở góc trên bên phải của hộp thoại</v>
+        <v>7. Điền tiêu đề</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Back-end Developer</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Hiển thị tiêu đề trong ô tróng</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="str">
-        <v>16. Ấn vào nút "Bài đăng" ở thanh bên</v>
-      </c>
-    </row>
-    <row r="38" xml:space="preserve">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Đăng bài khi nhập hạn nộp trước ngày hiện tại</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Phải đăng nhập với tư cách là nhà tuyển dụng</v>
-      </c>
+        <v>8. Chọn loại công việc</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Hiển thị loại công việc trong ô trống</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="str">
-        <v>1. Đăng nhập</v>
+        <v>9. Nhập địa chỉ</v>
       </c>
       <c r="F38" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G38" t="str" xml:space="preserve">
-        <v xml:space="preserve">[1] Refresh trang hiện tại với nút "Đăng bài" ở trên header_x000d_
-[2] Hiển thị hộp thoại ứng tuyển_x000d_
-[14] Hiển thị hộp thoại "Hạn nộp phải sau ngày hiện tại"_x000d_
-[15] Đóng hộp thoại lại_x000d_
-[16] Không hiển thị bài đăng vừa được đăng tải ở đầu danh sách</v>
+        <v>123 Test, Test, Test</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Hiển thị địa chỉ trong ô trống</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="str">
-        <v>2. Ấn nút "Đăng bài" ở thanh header</v>
+        <v>10. Nhập mức lương thấp nhất</v>
+      </c>
+      <c r="F39">
+        <v>3000</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Hiển thị mức lương trong ô trống</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="str">
-        <v>3. Điền tiêu đề</v>
-      </c>
-      <c r="F40" t="str">
-        <v>Back-end Developer</v>
+        <v>11. Nhập mức lương cao nhất</v>
+      </c>
+      <c r="F40">
+        <v>2000</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Hiển thị mức lương trong ô trống</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="str">
-        <v>4. Chọn loại công việc</v>
+        <v>12. Nhập tiền tệ</v>
       </c>
       <c r="F41" t="str">
-        <v>Full-time</v>
+        <v>$</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Hiển thị tiền tệ trong ô trống</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="str">
-        <v>5. Nhập địa chỉ</v>
+        <v>13. Chọn vị trí</v>
       </c>
       <c r="F42" t="str">
-        <v>123 Test, Test, Test</v>
+        <v>Fresher</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Hiển thị vị trí đã được chọn</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="str">
-        <v>6. Nhập mức lương thấp nhất</v>
+        <v>14. Chọn hạn nộp</v>
       </c>
       <c r="F43">
-        <v>2000</v>
+        <v>45351</v>
+      </c>
+      <c r="G43" t="str">
+        <v xml:space="preserve">Hiển thị calendar </v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="str">
-        <v>7. Nhập mức lương cao nhất</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
+        <v>15. Chọn confirm</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Hiển thị thời gian được chọn</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="str">
-        <v>8. Nhập tiền tệ</v>
+        <v>15. Chọn ngành nghề</v>
       </c>
       <c r="F45" t="str">
-        <v>$</v>
+        <v>Back-end</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Hiển thị ngành nghề đã chọn</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="str">
-        <v>9. Chọn vị trí</v>
+        <v>16. Nhập kinh nghiệm yêu cầu</v>
       </c>
       <c r="F46" t="str">
-        <v>Fresher</v>
+        <v>1 năm</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Hiển thị kinh nghiệm trong ô trống</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="str">
-        <v>10. Chọn hạn nộp</v>
+        <v>17. Nhập miêu tả</v>
       </c>
       <c r="F47" t="str">
-        <v>29/02/2023</v>
+        <v>Back-end developer</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Hiển thị mô tả trong ô trống</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="str">
-        <v>11. Chọn ngành nghề</v>
-      </c>
-      <c r="F48" t="str">
-        <v>Back-end</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="str">
-        <v>12. Nhập kinh nghiệm yêu cầu</v>
-      </c>
-      <c r="F49" t="str">
-        <v>1 năm</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="str">
-        <v>13. Nhập miêu tả</v>
-      </c>
-      <c r="F50" t="str">
-        <v>Back-end developer</v>
+        <v>18. Ấn "Đăng tải"</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Hệ thống hiển thị yêu cầu mức lương không hợp lệ</v>
       </c>
     </row>
     <row r="51">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Đăng bài khi nhập hạn nộp trước ngày hiện tại</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Phải đăng nhập với tư cách là nhà tuyển dụng</v>
+      </c>
       <c r="E51" t="str">
-        <v>14. Ấn "Đăng tải"</v>
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G51" t="str">
+        <v>link</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="str">
-        <v>15. Ấn nút "x" ở góc trên bên phải của hộp thoại</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F52" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="str">
-        <v>16. Ấn vào nút "Bài đăng" ở thanh bên</v>
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G54" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="str">
+        <v>5. Chuyển sang trang hồ sơ</v>
+      </c>
+      <c r="G55" t="str">
+        <v>link(trang hồ sơ)</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="str">
+        <v>6. Ấn nút "Đăng tải" ở thanh header</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Hiển thị hộp thoại nhập thông tin</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="str">
+        <v>7. Điền tiêu đề</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Back-end Developer</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Hiển thị tiêu đề trong ô tróng</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="str">
+        <v>8. Chọn loại công việc</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Full-time</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Hiển thị loại công việc trong ô trống</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="str">
+        <v>9. Nhập địa chỉ</v>
+      </c>
+      <c r="F59" t="str">
+        <v>123 Test, Test, Test</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Hiển thị địa chỉ trong ô trống</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="str">
+        <v>10. Nhập mức lương thấp nhất</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Hiển thị mức lương trong ô trống</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="str">
+        <v>11. Nhập mức lương cao nhất</v>
+      </c>
+      <c r="F61">
+        <v>2000</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Hiển thị mức lương trong ô trống</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="str">
+        <v>12. Nhập tiền tệ</v>
+      </c>
+      <c r="F62" t="str">
+        <v>$</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Hiển thị tiền tệ trong ô trống</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="str">
+        <v>13. Chọn vị trí</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Fresher</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Hiển thị vị trí đã được chọn</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="str">
+        <v>14. Chọn hạn nộp</v>
+      </c>
+      <c r="F64">
+        <v>45356</v>
+      </c>
+      <c r="G64" t="str">
+        <v xml:space="preserve">Hiển thị calendar </v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="str">
+        <v>15. Chọn confirm</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Hiển thị thời gian được chọn</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="str">
+        <v>15. Chọn ngành nghề</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Back-end</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Hiển thị ngành nghề đã chọn</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="str">
+        <v>16. Nhập kinh nghiệm yêu cầu</v>
+      </c>
+      <c r="F67" t="str">
+        <v>1 năm</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Hiển thị kinh nghiệm trong ô trống</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="str">
+        <v>17. Nhập miêu tả</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Back-end developer</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Hiển thị mô tả trong ô trống</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="str">
+        <v>18. Ấn "Đăng tải"</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Hiển thị hạn nộp không hợp lệ</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A38:A53"/>
-    <mergeCell ref="B38:B53"/>
-    <mergeCell ref="C38:C53"/>
-    <mergeCell ref="G38:G53"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B22:B37"/>
-    <mergeCell ref="C22:C37"/>
-    <mergeCell ref="G22:G37"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C2:C16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="G2:G16"/>
+  <mergeCells count="13">
+    <mergeCell ref="C2:C21"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="D23:D29"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="C51:C66"/>
+    <mergeCell ref="A30:A49"/>
+    <mergeCell ref="B30:B49"/>
+    <mergeCell ref="C30:C49"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="A23:A29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F17" r:id="rId2"/>
-    <hyperlink ref="F22" r:id="rId3"/>
-    <hyperlink ref="F38" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F24" r:id="rId2"/>
+    <hyperlink ref="F31" r:id="rId3"/>
+    <hyperlink ref="F52" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K70"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K371"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6679,18 +8472,21 @@
         <v xml:space="preserve">Test Designed by: </v>
       </c>
       <c r="F1" t="str">
-        <v>Huỳnh Vũ Anh Tuấn</v>
+        <v>Trần Duy Thanh</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="str">
         <v>Module Name:</v>
       </c>
+      <c r="C2" t="str">
+        <v>Mua kim cương - Thanh toán</v>
+      </c>
       <c r="E2" t="str">
         <v>Test Designed date:</v>
       </c>
       <c r="F2" t="str">
-        <v>Huỳnh Vũ Anh Tuấn</v>
+        <v>Trần Duy Thanh</v>
       </c>
     </row>
     <row r="3">
@@ -6704,7 +8500,7 @@
         <v xml:space="preserve">Test Executed by:  </v>
       </c>
       <c r="F3" t="str">
-        <v>Huỳnh Vũ Anh Tuấn</v>
+        <v>Trần Duy Thanh</v>
       </c>
     </row>
     <row r="4">
@@ -6712,7 +8508,7 @@
         <v xml:space="preserve">Test Execution date:  </v>
       </c>
       <c r="F4" t="str">
-        <v>15/1/2024</v>
+        <v>13/1/2024</v>
       </c>
     </row>
     <row r="6">
@@ -6724,6 +8520,9 @@
       <c r="A7" t="str">
         <v>Dependencies:</v>
       </c>
+      <c r="B7" t="str">
+        <v>Mua KC phụ thuộc thanh toán</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -6753,168 +8552,1019 @@
         <v>Expected Result</v>
       </c>
       <c r="H10" t="str">
+        <v>Post-condition</v>
+      </c>
+      <c r="I10" t="str">
         <v>Actual Result</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>Status</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <v>Notes</v>
       </c>
     </row>
-    <row r="11" xml:space="preserve">
+    <row r="11">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="str">
-        <v>Chat với ứng viên</v>
+        <v xml:space="preserve">Mua kim cương (199KC, 599KC, 999KC) </v>
       </c>
       <c r="C11" t="str">
-        <v>Đăng nhập với role nhà tuyển dụng và chat với ứng viên</v>
+        <v>Đăng nhập vào ứng dụng với role là user, và có số dư tài khoản đủ để mua KC</v>
       </c>
       <c r="D11" t="str">
-        <v>Chat thành công</v>
+        <v>Mua thành công</v>
       </c>
       <c r="E11" t="str">
-        <v>1. Đăng nhập</v>
-      </c>
-      <c r="F11" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G11" t="str" xml:space="preserve">
-        <v xml:space="preserve">[2]: Hiển thị trang chat chính_x000d_
-[3]: Hiển thị khung chat riêng với ứng viên chứa những tin nhắn cũ được loag lên từ database(nếu có)_x000d_
-[4]: Hiển thị con trỏ chuột dưới thanh input_x000d_
-[5]: Hiển thị nội dung dưới thanh input_x000d_
-[6]: Sever gọi API Web socket gửi tín hiệu sau sau đó render ra component với nội dung nhà tuyển dụng đã nhập, đồng thời khung chat bên ứng viên nhận được nội dung tin nhắn mà nhà tuyển dụng đã gởi. _x000d_
-[7]: Hiển thị các đoạn tin nhắn trong cuộc hội thoại với n ội dung đã gửi ở dưới cùng</v>
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G11" t="str">
+        <v>link</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="str">
-        <v>2. Bấm vào mục chat</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F12" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="str">
-        <v>3. Chọn ứng viên để trả lời tin nhắn</v>
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="str">
-        <v>4. Nhấn vào thanh gõ text</v>
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G14" t="str">
+        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="str">
-        <v>5. Nhập text chat với ứng viên</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Chào em, em cần giúp gì</v>
+        <v>5. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
+      </c>
+      <c r="G15" t="str">
+        <v>link(trang mua KC)</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="str">
-        <v>6. Bấm nút gửi</v>
+        <v>6. Ấn chi tiết gói</v>
+      </c>
+      <c r="F16">
+        <v>199</v>
+      </c>
+      <c r="G16" t="str">
+        <v>link(trang chi tiết gói)</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="str">
-        <v>7. Load lại trang chat</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Chat với ứng viên</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Đăng nhập với role nhà tuyển dụng và chat với ứng viên</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Nhà tuyển dụng không gửi được tin nhắn do đường truyền lỗi, chat thất bại</v>
-      </c>
+        <v>7. Ấn vào Thanh toán</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Hiển thị hộp thoại thanh toán</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="str">
-        <v>1. Đăng nhập</v>
+        <v>8. Nhập mã Card</v>
       </c>
       <c r="F18" t="str">
-        <v>user@gmail.com, Tranduy123312</v>
-      </c>
-      <c r="G18" t="str" xml:space="preserve">
-        <v xml:space="preserve">[2]: Hiển thị trang chat chính_x000d_
-[3]: Hiển thị khung chat riêng với ứng viên nhưng các tin nhắn cũ(nếu có) không thể loag lên _x000d_
-[4]: Hiển thị con trỏ chuột dưới thanh input_x000d_
-[5]: Hiển thị nội dung dưới thanh input_x000d_
-[6]: Sever gọi API Web socket gửi tín hiệu sau sau đó render ra component với nội dung nhà tuyển dụng đã nhập nhưng tin nhắn không được gởi đến ứng viên và không được cập nhật vào database_x000d_
-[7]: Hiển thị khung chat với ứng viên với nội dung đã gửi ở dưới cùng</v>
+        <v>4242 4242 4242 4242</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Hiển thị mã Card vào ô trống</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="str">
-        <v>2. Bấm vào mục chat</v>
+        <v>9. Nhập ngày tạo thẻ</v>
+      </c>
+      <c r="F19">
+        <v>424</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Hiển thị ngày tạo thẻ vào ô trống</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="str">
-        <v>3. Bấm vào phần chat trả lời câu hởi của ứng viên</v>
+        <v>10. Nhập CVC</v>
+      </c>
+      <c r="F20">
+        <v>424</v>
+      </c>
+      <c r="G20" t="str">
+        <v xml:space="preserve">Hiển thị CVC vào ô trống </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="str">
+        <v>11. Ấn Thanh toán</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Hiển thị hộp thoại thanh toán thành công</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="str">
+        <v>12. Ấn Ok</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Đóng hộp  thoại</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Đăng nhập vào ứng dụng với role là user _x000d_
+Người dùng phải có đủ số dư để mua KC</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Không nhập thông tin thanh toán</v>
+      </c>
+      <c r="E23" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G23" t="str">
+        <v>link</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="str">
-        <v>4. Nhấn vào thanh gõ text</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F24" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="str">
-        <v>5. Nhập text chat với ứng viên</v>
+        <v>3. Nhập mật khẩu</v>
       </c>
       <c r="F25" t="str">
-        <v>Chào em, em cần giúp gì</v>
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="str">
-        <v>6. Bấm nút gửi</v>
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G26" t="str">
+        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="str">
-        <v>7. Load lại trang chat</v>
+        <v>5. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
+      </c>
+      <c r="G27" t="str">
+        <v>link(trang mua KC)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="str">
+        <v>6. Ấn chi tiết gói</v>
+      </c>
+      <c r="F28">
+        <v>199</v>
+      </c>
+      <c r="G28" t="str">
+        <v>link(trang chi tiết gói)</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="str">
+        <v>7. Ấn vào Thanh toán</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Hiển thị hộp thoại thanh toán</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="str">
+        <v>8. Ấn Thanh toán</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Hiển thị thông báo yêu cầu người dùng nhập thông tin thẻ</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Đăng nhập vào ứng dụng với role là user, người dùng phải có tài khoản ngân hàng</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Không nhập một trong các thông tin thanh toán</v>
+      </c>
+      <c r="E32" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G32" t="str">
+        <v>link</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F33" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G35" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="str">
+        <v>5. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
+      </c>
+      <c r="G36" t="str">
+        <v>link(trang mua KC)</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="str">
+        <v>6. Ấn chi tiết gói</v>
+      </c>
+      <c r="F37">
+        <v>199</v>
+      </c>
+      <c r="G37" t="str">
+        <v>link(trang chi tiết gói)</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="str">
+        <v>7. Ấn vào Thanh toán</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Hiển thị hộp thoại thanh toán</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="str">
+        <v>8. Nhập mã Card</v>
+      </c>
+      <c r="F39" t="str">
+        <v>4242 4242 4242 4242</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Hiển thị mã Card vào ô trống</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="str">
+        <v>9. Nhập ngày tạo thẻ</v>
+      </c>
+      <c r="F40">
+        <v>424</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Hiển thị ngày tạo thẻ vào ô trống</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="str">
+        <v>10. Ấn Thanh toán</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Hiển thị hộp thoại thanh toán thành công</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="str">
+        <v>11. Ấn Ok</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Đóng hộp  thoại</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Đăng nhập vào ứng dụng với role là user, có đủ số dư và đang truy cập internet</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Đang thanh toán với Dialog thanh toán bấm nút hủy</v>
+      </c>
+      <c r="E45" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G45" t="str">
+        <v>link</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F46" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G48" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="str">
+        <v>5. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
+      </c>
+      <c r="G49" t="str">
+        <v>link(trang mua KC)</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="str">
+        <v>6. Ấn chi tiết gói</v>
+      </c>
+      <c r="F50">
+        <v>199</v>
+      </c>
+      <c r="G50" t="str">
+        <v>link(trang chi tiết gói)</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="str">
+        <v>7. Ấn vào Thanh toán</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Hiển thị hộp thoại thanh toán</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="str">
+        <v>8. Nhập mã Card</v>
+      </c>
+      <c r="F52" t="str">
+        <v>4242 4242 4242 4242</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Hiển thị mã Card vào ô trống</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="str">
+        <v>9. Nhập ngày tạo thẻ</v>
+      </c>
+      <c r="F53">
+        <v>424</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Hiển thị ngày tạo thẻ vào ô trống</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="str">
+        <v>10. Nhập CVC</v>
+      </c>
+      <c r="F54">
+        <v>424</v>
+      </c>
+      <c r="G54" t="str">
+        <v xml:space="preserve">Hiển thị CVC vào ô trống </v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="str">
+        <v>11. Ấn hủy</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Đóng hộp thoại và hiển thị link(trang chi tiết gói)</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="str">
+        <v>12. Ấn Hủy</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Đăng nhập vào ứng dụng với role là user, và người dùng phải có đủ số dư trong tài khoản để thanh toán</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Tài khoản không đủ tiền thanh  toán</v>
+      </c>
+      <c r="E59" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G59" t="str">
+        <v>link</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F60" t="str">
+        <v>user@gmail.com</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G62" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="str">
+        <v>5. Bấm dấu cộng trên thanh header cạnh số lượng KC</v>
+      </c>
+      <c r="G63" t="str">
+        <v>link(trang mua KC)</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="str">
+        <v>6. Ấn chi tiết gói</v>
+      </c>
+      <c r="F64">
+        <v>199</v>
+      </c>
+      <c r="G64" t="str">
+        <v>link(trang chi tiết gói)</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="str">
+        <v>7. Ấn vào Thanh toán</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Hiển thị hộp thoại thanh toán</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="str">
+        <v>8. Nhập mã Card</v>
+      </c>
+      <c r="F66" t="str">
+        <v>4242 4242 4242 4242</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Hiển thị mã Card vào ô trống</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="str">
+        <v>9. Nhập ngày tạo thẻ</v>
+      </c>
+      <c r="F67">
+        <v>424</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Hiển thị ngày tạo thẻ vào ô trống</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="str">
+        <v>10. Nhập CVC</v>
+      </c>
+      <c r="F68">
+        <v>424</v>
+      </c>
+      <c r="G68" t="str">
+        <v xml:space="preserve">Hiển thị CVC vào ô trống </v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="str">
+        <v>11. Ấn Thanh toán</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Hiển thị thông báo quý khách không đủ số dư</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D18:D27"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="A18:A27"/>
+  <mergeCells count="20">
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A11:A22"/>
+    <mergeCell ref="C11:C22"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="H11:H22"/>
+    <mergeCell ref="D23:D31"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="G18:G27"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C23:C31"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="D45:D57"/>
+    <mergeCell ref="C45:C57"/>
+    <mergeCell ref="C32:C43"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="D32:D43"/>
+    <mergeCell ref="D59:D69"/>
+    <mergeCell ref="C59:C69"/>
+    <mergeCell ref="B11:B69"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1"/>
-    <hyperlink ref="F18" r:id="rId2"/>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F24" r:id="rId2"/>
+    <hyperlink ref="F33" r:id="rId3"/>
+    <hyperlink ref="F46" r:id="rId4"/>
+    <hyperlink ref="F60" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K371"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K367"/>
+  <dimension ref="A4:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Test Case#</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Test Title/ Scenario</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Pre-condion</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Test Summary</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Test Steps</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Test Data</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Expected Result</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Post-condition</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Actual Result</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Status</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Notes</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="B5" t="str">
+        <v>Chat với nhà tuyển dụng</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ứng tuyển viên đã theo_x000d_
+ dõi nhà tuyển dụng</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Chat với nhà tuyển _x000d_
+dụng khi ấn vào trang chat</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G5" t="str">
+        <v>link</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
+      </c>
+      <c r="G6" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G8" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="str">
+        <v>5. Ấn sang trang Chat</v>
+      </c>
+      <c r="G9" t="str">
+        <v>link(trang chat)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="str">
+        <v>6. Chọn vào mục chat</v>
+      </c>
+      <c r="G10" t="str">
+        <v>link(mục chat)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="str">
+        <v>7.Nhập dữ liệu</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Xin chào nhà tuyển dụng</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Hiển thị dữ liệu vào ô trống</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="str">
+        <v>8.Ấn gửi</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Hiển thị tin nhắn đã gửi cho nhà tuyển dụng</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="str">
+        <v>9. Vào trang web</v>
+      </c>
+      <c r="G13" t="str">
+        <v>link(trang web đăng nhập</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="str">
+        <v>10. Nhập tài khoản</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
+      </c>
+      <c r="G14" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="str">
+        <v>11. Nhập mật khẩu</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="str">
+        <v>12. Ấn đăng nhập</v>
+      </c>
+      <c r="G16" t="str">
+        <v>link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="str">
+        <v>13. Ấn chat</v>
+      </c>
+      <c r="G17" t="str">
+        <v>link(trang chat)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="str">
+        <v>14. Ấn vào đoạn chat với ứng tuyển viên</v>
+      </c>
+      <c r="G18" t="str">
+        <v>link(mục chat)</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Chat với nhà tuyển _x000d_
+dụng khi ấn tình trạng ứng tuyển</v>
+      </c>
+      <c r="E20" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G20" t="str">
+        <v>link</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F21" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
+      </c>
+      <c r="G21" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G23" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="str">
+        <v>5. Ấn sang trang cá nhân</v>
+      </c>
+      <c r="G24" t="str">
+        <v>link(trang cá nhân)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="str">
+        <v>6. Ấn vào tình trạng ứng tuyển</v>
+      </c>
+      <c r="G25" t="str">
+        <v>link(trang tình trạng ứng tuyển)</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="str">
+        <v>7. Ấn chat với nhà tuyển dụng</v>
+      </c>
+      <c r="G26" t="str">
+        <v>link(trang chat)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="str">
+        <v>8. Nhập dữ liệu</v>
+      </c>
+      <c r="F27" t="str">
+        <v>xin chào nhà tuyển dụng</v>
+      </c>
+      <c r="G27" t="str">
+        <v>hiển thị dữ liệu vào ô trống</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="str">
+        <v>9. Ấn gửi</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Hiển thị tin nhắn đã gửi</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="str">
+        <v>10. Vào trang web</v>
+      </c>
+      <c r="G29" t="str">
+        <v>link(trang đăng nhập)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="str">
+        <v>11. Nhập tài khoản</v>
+      </c>
+      <c r="F30" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
+      </c>
+      <c r="G30" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="str">
+        <v>12. Nhập mật khẩu</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="str">
+        <v>13. Ấn đăng nhập</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Link(trang chủ)</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="str">
+        <v>14. Ấn chat</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Link(trang chat)</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="str">
+        <v>15. Ấn vào đoạn chat với ứng tuyển viên</v>
+      </c>
+      <c r="G34" t="str">
+        <v>link(trang chat với ứng viên)</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="D36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Chat với nhà tuyển _x000d_
+dụng khi không nhập thông tin</v>
+      </c>
+      <c r="E36" t="str">
+        <v>1. Vào ứng dụng</v>
+      </c>
+      <c r="G36" t="str">
+        <v>link</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="str">
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F37" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
+      </c>
+      <c r="G37" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="str">
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Tranduy123312</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="str">
+        <v>4. Bấm nút đăng nhập</v>
+      </c>
+      <c r="G39" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="str">
+        <v>5. Ấn sang trang Chat</v>
+      </c>
+      <c r="G40" t="str">
+        <v>link(trang chat)</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="str">
+        <v>6. Chọn vào mục chat</v>
+      </c>
+      <c r="G41" t="str">
+        <v>link(mục chat)</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="str">
+        <v>7.Ấn gửi</v>
+      </c>
+      <c r="G42" t="str">
+        <v>…</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D5:D18"/>
+    <mergeCell ref="D20:D34"/>
+    <mergeCell ref="D36:D42"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="F21" r:id="rId3"/>
+    <hyperlink ref="F30" r:id="rId4"/>
+    <hyperlink ref="F37" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A4:K42"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6963,6 +9613,9 @@
       <c r="F3" t="str">
         <v>Tiêu Trí Quang</v>
       </c>
+      <c r="I3" t="str">
+        <v>test</v>
+      </c>
     </row>
     <row r="4">
       <c r="E4" t="str">
@@ -7050,10 +9703,16 @@
         <v>2. Nhập tài khoản</v>
       </c>
       <c r="F12" t="str">
-        <v xml:space="preserve">user@gmail.com, </v>
+        <v>quang@gmail.com</v>
       </c>
       <c r="G12" t="str">
         <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Hiển thị tài khoản trong ô trống</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="13">
@@ -7061,10 +9720,16 @@
         <v>3. Nhập mật khẩu</v>
       </c>
       <c r="F13" t="str">
-        <v>Tranduy123312</v>
+        <v>Quang123</v>
       </c>
       <c r="G13" t="str">
         <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Hiển thị mật khẩu trong ô trống</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="14">
@@ -7074,6 +9739,12 @@
       <c r="G14" t="str">
         <v>link(Trang chủ)</v>
       </c>
+      <c r="I14" t="str">
+        <v>link(Trang chủ)</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Pass</v>
+      </c>
     </row>
     <row r="15">
       <c r="E15" t="str">
@@ -7082,6 +9753,12 @@
       <c r="G15" t="str">
         <v>link(trang công việc chi tiết)</v>
       </c>
+      <c r="I15" t="str">
+        <v>link(trang công việc chi tiết)</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Pass</v>
+      </c>
     </row>
     <row r="16">
       <c r="E16" t="str">
@@ -7090,6 +9767,12 @@
       <c r="G16" t="str">
         <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
       </c>
+      <c r="I16" t="str">
+        <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Pass</v>
+      </c>
     </row>
     <row r="17">
       <c r="E17" t="str">
@@ -7098,16 +9781,22 @@
       <c r="G17" t="str">
         <v>Hiển thị hộp thoại ứng tuyển</v>
       </c>
+      <c r="I17" t="str">
+        <v>Hiển thị hộp thoại ứng tuyển</v>
+      </c>
     </row>
     <row r="18">
       <c r="E18" t="str">
         <v>8.Chọn CV đã có</v>
       </c>
       <c r="F18" t="str">
-        <v>cv.pdf</v>
+        <v>Tran Duy Thanh Fresher, Loại, Full-time, Vị trí, Fresher</v>
       </c>
       <c r="G18" t="str">
-        <v>Hiển thị file pdf thay thế cho "Đăng tải file"</v>
+        <v>Đổi màu viền thành màu xanh lá</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Pass</v>
       </c>
     </row>
     <row r="19">
@@ -7117,6 +9806,12 @@
       <c r="G19" t="str">
         <v>Hiển thị hộp thoại thông báo ứng tuyển thành công</v>
       </c>
+      <c r="I19" t="str">
+        <v>Hiển thị hộp thoại thông báo ứng tuyển thành công và thông tin đúng với CV đã chọn.</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Pass</v>
+      </c>
     </row>
     <row r="20">
       <c r="E20" t="str">
@@ -7135,338 +9830,361 @@
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="str">
-        <v>Ưng viên ứng tuyển với 1 CV mà mình đã tạo trên nhưng không đủ KC</v>
-      </c>
       <c r="E22" t="str">
-        <v>1. Vào ứng dụng</v>
+        <v>12. Back ra trang chủ</v>
       </c>
       <c r="G22" t="str">
-        <v>link</v>
+        <v>Trở về trang chủ</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="F23" t="str">
-        <v xml:space="preserve">user@gmail.com, </v>
+        <v>13. Ấn vào nút hình người ở bottom navigation</v>
       </c>
       <c r="G23" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
+        <v>Hiển thị trang settings</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Tranduy123312</v>
+        <v>14. Ấn "Tình trạng ứng tuyển"</v>
       </c>
       <c r="G24" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
+        <v>Hiển thị tình trạng ứng tuyển với thông tin công việc đã ứng tuyển và thông tin file CV đã đăng</v>
       </c>
     </row>
     <row r="25">
+      <c r="D25" t="str">
+        <v>Ưng viên ứng tuyển với 1 CV mà mình đã tạo trên nhưng không đủ KC</v>
+      </c>
       <c r="E25" t="str">
-        <v>4. Bấm nút đăng nhập</v>
+        <v>1. Vào ứng dụng</v>
       </c>
       <c r="G25" t="str">
-        <v>link(Trang chủ)</v>
+        <v>link</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="str">
-        <v>5. Ở trang chủ, ấn vào công việc</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F26" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
       </c>
       <c r="G26" t="str">
-        <v>link(trang công việc chi tiết)</v>
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="str">
-        <v>6. Ấn vào icon "Tick" để ứng tuyển</v>
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Tranduy123312</v>
       </c>
       <c r="G27" t="str">
-        <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="str">
-        <v>7. Chọn "Ứng tuyển với CV đã có"</v>
+        <v>4. Bấm nút đăng nhập</v>
       </c>
       <c r="G28" t="str">
-        <v>Hiển thị hộp thoại ứng tuyển</v>
+        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="str">
-        <v>8. Chọn CV đã có</v>
-      </c>
-      <c r="F29" t="str">
-        <v>cv.pdf</v>
+        <v>5. Ở trang chủ, ấn vào công việc</v>
       </c>
       <c r="G29" t="str">
-        <v>Hiển thị file pdf thay thế cho "Đăng tải file"</v>
+        <v>link(trang công việc chi tiết)</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="str">
+        <v>6. Ấn vào icon "Tick" để ứng tuyển</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="str">
+        <v>7. Chọn "Ứng tuyển với CV đã có"</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Hiển thị hộp thoại ứng tuyển</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="str">
+        <v>8. Chọn CV đã có</v>
+      </c>
+      <c r="F32" t="str">
+        <v>cv.pdf</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Hiển thị file pdf thay thế cho "Đăng tải file"</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="str">
         <v>9. Ấn ứng tuyển</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G33" t="str">
         <v>Hiển thị thông báo "Bạn không có đủ số KC. Vui lòng nạp thêm vào tài khoản"</v>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32">
+    <row r="35" xml:space="preserve">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B35" t="str">
         <v>[Ứng tuyển] Ứng tuyển bằng cách đăng tải CV PDF</v>
       </c>
-      <c r="C32" t="str" xml:space="preserve">
+      <c r="C35" t="str" xml:space="preserve">
         <v xml:space="preserve">Người dùng phải đăng nhập với quyền ứng viên_x000d_
 Người dùng phải có 20 kim cương_x000d_
 Bài đăng phải còn hạng</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D35" t="str">
         <v>Ứng viên ứng tuyển với một CV PDF đã có trên thiết bị của người dùng</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E35" t="str">
         <v>1. Vào ứng dụng</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G35" t="str">
         <v>link</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="F33" t="str">
-        <v xml:space="preserve">user@gmail.com, </v>
-      </c>
-      <c r="G33" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="G34" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="G35" t="str">
-        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="str">
-        <v>5. Ở trang chủ, ấn vào công việc</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F36" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
       </c>
       <c r="G36" t="str">
-        <v>link(trang công việc chi tiết)</v>
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="str">
-        <v>6. Ấn vào icon "Tick" để ứng tuyển</v>
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Tranduy123312</v>
       </c>
       <c r="G37" t="str">
-        <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <v>3</v>
-      </c>
       <c r="E38" t="str">
-        <v>7. Chọn "Ứng tuyển với CV PDF"</v>
+        <v>4. Bấm nút đăng nhập</v>
       </c>
       <c r="G38" t="str">
-        <v>Hiển thị hộp thoại "Đăng tải CV"</v>
+        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="str">
-        <v>8. Ấn chọn đăng tải file</v>
+        <v>5. Ở trang chủ, ấn vào công việc</v>
       </c>
       <c r="G39" t="str">
-        <v>Hiển thị file PDF trong hệ thống của thiết bị</v>
+        <v>link(trang công việc chi tiết)</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="str">
-        <v>9. Chọn file PDF</v>
-      </c>
-      <c r="F40" t="str">
-        <v>Dowload/cv.pdf</v>
+        <v>6. Ấn vào icon "Tick" để ứng tuyển</v>
       </c>
       <c r="G40" t="str">
-        <v>Hiển thị file PDF thay thế cho "Đăng tải file"</v>
+        <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
       </c>
     </row>
     <row r="41">
+      <c r="A41">
+        <v>3</v>
+      </c>
       <c r="E41" t="str">
-        <v xml:space="preserve">10. Ấn ứng tuyển </v>
+        <v>7. Chọn "Ứng tuyển với CV PDF"</v>
       </c>
       <c r="G41" t="str">
-        <v>Hiển thị hộp thoại thông báo ứng tuyển thành công</v>
+        <v>Hiển thị hộp thoại "Đăng tải CV"</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="str">
-        <v>11. Ấn xong</v>
+        <v>8. Ấn chọn đăng tải file</v>
       </c>
       <c r="G42" t="str">
-        <v>Hiển thị lại trang chi tiết công việc đã ứng tuyển</v>
+        <v>Hiển thị file PDF trong hệ thống của thiết bị</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="str">
-        <v>12. Ấn vào icon "Tick"</v>
+        <v>9. Chọn file PDF</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Dowload/cv.pdf</v>
       </c>
       <c r="G43" t="str">
+        <v>Hiển thị file PDF thay thế cho "Đăng tải file"</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="str">
+        <v xml:space="preserve">10. Ấn ứng tuyển </v>
+      </c>
+      <c r="G44" t="str">
         <v>Hiển thị hộp thoại thông báo ứng tuyển thành công</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="str">
-        <v>Ứng viên ứng tuyển với một CV PDF đã có trên thiết bị của người dùng nhưng không đủ số KC</v>
-      </c>
-      <c r="E44" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="G44" t="str">
-        <v>link</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="F45" t="str">
-        <v xml:space="preserve">user@gmail.com, </v>
+        <v>11. Ấn xong</v>
       </c>
       <c r="G45" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
+        <v>Hiển thị lại trang chi tiết công việc đã ứng tuyển</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="F46" t="str">
-        <v>Tranduy123312</v>
+        <v>12. Ấn vào icon "Tick"</v>
       </c>
       <c r="G46" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
+        <v>Hiển thị hộp thoại thông báo ứng tuyển thành công</v>
       </c>
     </row>
     <row r="47">
+      <c r="D47" t="str">
+        <v>Ứng viên ứng tuyển với một CV PDF đã có trên thiết bị của người dùng nhưng không đủ số KC</v>
+      </c>
       <c r="E47" t="str">
-        <v>4. Bấm nút đăng nhập</v>
+        <v>1. Vào ứng dụng</v>
       </c>
       <c r="G47" t="str">
-        <v>link(Trang chủ)</v>
+        <v>link</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="str">
-        <v>5. Ở trang chủ, ấn vào công việc</v>
+        <v>2. Nhập tài khoản</v>
+      </c>
+      <c r="F48" t="str">
+        <v xml:space="preserve">user@gmail.com, </v>
       </c>
       <c r="G48" t="str">
-        <v>link(trang công việc chi tiết)</v>
+        <v>Hiển thị tài khoản trong ô trống</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="str">
-        <v>6. Ấn vào icon "Tick" để ứng tuyển</v>
+        <v>3. Nhập mật khẩu</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Tranduy123312</v>
       </c>
       <c r="G49" t="str">
-        <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
+        <v>Hiển thị mật khẩu trong ô trống</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="str">
-        <v>7. Chọn "Ứng tuyển với CV PDF"</v>
+        <v>4. Bấm nút đăng nhập</v>
       </c>
       <c r="G50" t="str">
-        <v>Hiển thị hộp thoại "Đăng tải CV"</v>
+        <v>link(Trang chủ)</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="str">
-        <v>8. Ấn chọn đăng tải file</v>
+        <v>5. Ở trang chủ, ấn vào công việc</v>
       </c>
       <c r="G51" t="str">
-        <v>Hiển thị file PDF trong hệ thống của thiết bị</v>
+        <v>link(trang công việc chi tiết)</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="str">
-        <v>9. Chọn file PDF</v>
-      </c>
-      <c r="F52" t="str">
-        <v>Dowload/cv.pdf</v>
+        <v>6. Ấn vào icon "Tick" để ứng tuyển</v>
       </c>
       <c r="G52" t="str">
-        <v>Hiển thị file PDF thay thế cho "Đăng tải file"</v>
+        <v>Hiển thị hộp thoại với 2 tùy chọn là ứng tuyển bằng CV đã có và ứng tuyển bằng CV PDF</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="str">
+        <v>7. Chọn "Ứng tuyển với CV PDF"</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Hiển thị hộp thoại "Đăng tải CV"</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="str">
+        <v>8. Ấn chọn đăng tải file</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Hiển thị file PDF trong hệ thống của thiết bị</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="str">
+        <v>9. Chọn file PDF</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Dowload/cv.pdf</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Hiển thị file PDF thay thế cho "Đăng tải file"</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="str">
         <v xml:space="preserve">10. Ấn ứng tuyển </v>
       </c>
-      <c r="G53" t="str">
+      <c r="G56" t="str">
         <v>Hiển thị thông báo "Bạn không có đủ số KC. Vui lòng nạp thêm vào tài khoản"</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64">
+    <row r="67">
+      <c r="A67">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="D32:D43"/>
-    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D47:D56"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="D25:D34"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="C35:C44"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="D11:D21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1"/>
-    <hyperlink ref="F23" r:id="rId2"/>
-    <hyperlink ref="F33" r:id="rId3"/>
-    <hyperlink ref="F45" r:id="rId4"/>
+    <hyperlink ref="F26" r:id="rId1"/>
+    <hyperlink ref="F36" r:id="rId2"/>
+    <hyperlink ref="F48" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K367"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K370"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J76"/>
   <sheetViews>
@@ -8067,6 +10785,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B11:B31"/>
+    <mergeCell ref="C11:C31"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:A31"/>
     <mergeCell ref="C38:C46"/>
     <mergeCell ref="D38:D46"/>
     <mergeCell ref="D48:D54"/>
@@ -8079,14 +10805,6 @@
     <mergeCell ref="B38:B63"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="C56:C63"/>
-    <mergeCell ref="B11:B31"/>
-    <mergeCell ref="C11:C31"/>
-    <mergeCell ref="D11:D19"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:A31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F12" r:id="rId1"/>
@@ -8099,610 +10817,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:J76"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>Test Case#</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Test Title/ Scenario</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Pre-condion</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Test Summary</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Test Steps</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Test Data</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Expected Result</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Post-condition</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Actual Result</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="str">
-        <v xml:space="preserve">Đánh giá </v>
-      </c>
-      <c r="E8" t="str">
-        <v>Đánh giá khi điền đầy đủ thông tin</v>
-      </c>
-      <c r="F8" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="H8" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G9" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="H11" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="str">
-        <v>5. Ấn vào trang chi tiết công việc</v>
-      </c>
-      <c r="H12" t="str">
-        <v>link(trang chi tiết công việc)</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="str">
-        <v>6. Ấn chọn đánh giá sao</v>
-      </c>
-      <c r="H13" t="str">
-        <v>Hiển thị đánh giá sao đã được chọn</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="F14" t="str">
-        <v>7. Nhập đánh giá vào ô trống</v>
-      </c>
-      <c r="G14" t="str" xml:space="preserve">
-        <v xml:space="preserve">chỗ này uy tín này_x000d_
-mọi người❤️</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Hiển thị phần đánh giá vào ô trống</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="str">
-        <v>8. Ấn đăng bài</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Hiển thị phần đánh giá đã được đăng tải</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="E17" t="str" xml:space="preserve">
-        <v xml:space="preserve">Đánh giá _x000d_
-khi không_x000d_
- chọn sao</v>
-      </c>
-      <c r="F17" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="H17" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G18" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H18" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G19" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H19" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="H20" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="str">
-        <v>5. Ấn vào trang chi tiết công việc</v>
-      </c>
-      <c r="H21" t="str">
-        <v>link(trang chi tiết công việc)</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="str">
-        <v>6. Không chọn sao</v>
-      </c>
-      <c r="H22" t="str">
-        <v>Hiển thị 5 sao mặc định</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
-      <c r="F23" t="str">
-        <v>7. Nhập đánh giá vào ô trống</v>
-      </c>
-      <c r="G23" t="str" xml:space="preserve">
-        <v xml:space="preserve">chỗ này uy tín này_x000d_
-mọi người❤️</v>
-      </c>
-      <c r="H23" t="str">
-        <v>Hiển thị phần đánh giá vào ô trống</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="str">
-        <v>8. Ấn đăng bài</v>
-      </c>
-      <c r="H24" t="str">
-        <v>Hiển thị phần đánh giá đã được đăng tải</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="E26" t="str" xml:space="preserve">
-        <v xml:space="preserve">Đánh giá _x000d_
-khi không_x000d_
-nhập đánh_x000d_
-giá</v>
-      </c>
-      <c r="F26" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="H26" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G27" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H27" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G28" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H28" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="H29" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="F30" t="str">
-        <v>5. Ấn vào trang chi tiết công việc</v>
-      </c>
-      <c r="H30" t="str">
-        <v>link(trang chi tiết công việc)</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" t="str">
-        <v>6. Ấn chọn đánh giá sao</v>
-      </c>
-      <c r="H31" t="str">
-        <v>Hiển thị đánh giá sao đã được chọn</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="F32" t="str">
-        <v>7. Nhập đánh giá vào ô trống</v>
-      </c>
-      <c r="H32" t="str">
-        <v>Không hiển thị phần đánh giá</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="F33" t="str">
-        <v>8. Ấn đăng bài</v>
-      </c>
-      <c r="H33" t="str">
-        <v>Hiển thị phần đánh giá đã được đăng tải</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="D8:D33"/>
-    <mergeCell ref="C8:C33"/>
-    <mergeCell ref="B8:B33"/>
-    <mergeCell ref="E8:E15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1"/>
-    <hyperlink ref="G18" r:id="rId2"/>
-    <hyperlink ref="G27" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="B7:K33"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>Test Case#</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Test Title/ Scenario</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Pre-condion</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Test Summary</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Test Steps</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Test Data</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Expected Result</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Post-condition</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Actual Result</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Status</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="str">
-        <v>TÍnh lương</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Tính lương với điều kiện nhập đầy đủ</v>
-      </c>
-      <c r="F8" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="H8" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G9" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G10" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="H11" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="str">
-        <v>5. Ấn sang trang cá nhân</v>
-      </c>
-      <c r="H12" t="str">
-        <v>link(trang cá nhân)</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="str">
-        <v>6. Ấn sang "Công cụ tính lương"</v>
-      </c>
-      <c r="H13" t="str">
-        <v>link(trang công cụ tính lương)</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="str">
-        <v>7. Nhập lương hằng tháng vào ô trống</v>
-      </c>
-      <c r="G14">
-        <v>1000000</v>
-      </c>
-      <c r="H14" t="str">
-        <v>Hiển thị lương vào ô trống</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="str">
-        <v>8. Chọn số người phụ thuộc</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="str">
-        <v>Hiển thị số người phụ thuộc và tiền lương tính thuế dựa theo số người phụ thuộc</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="str" xml:space="preserve">
-        <v xml:space="preserve">Tính lương_x000d_
-với trường_x000d_
-hợp không_x000d_
-nhập lương</v>
-      </c>
-      <c r="F16" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="H16" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G17" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H17" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G18" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H18" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="H19" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" t="str">
-        <v>5. Ấn sang trang cá nhân</v>
-      </c>
-      <c r="H20" t="str">
-        <v>link(trang cá nhân)</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="str">
-        <v>6. Ấn sang "Công cụ tính lương"</v>
-      </c>
-      <c r="H21" t="str">
-        <v>link(trang công cụ tính lương)</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="str">
-        <v>7. Nhập lương hằng tháng vào ô trống</v>
-      </c>
-      <c r="H22" t="str">
-        <v>Không hiển thị số lương hằng tháng</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" t="str">
-        <v>8. Chọn số người phụ thuộc</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="str">
-        <v>Hiển thị số người phụ thuộc và 0VNĐ lương tính thuế dựa theo số người phụ thuộc</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="str" xml:space="preserve">
-        <v xml:space="preserve">Tính lương _x000d_
-với trường hợp_x000d_
- không chọn _x000d_
-số người phụ thuộc</v>
-      </c>
-      <c r="F24" t="str">
-        <v>1. Vào ứng dụng</v>
-      </c>
-      <c r="H24" t="str">
-        <v>link(trang đăng nhập)</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="str">
-        <v>2. Nhập tài khoản</v>
-      </c>
-      <c r="G25" t="str">
-        <v>user@gmail.com</v>
-      </c>
-      <c r="H25" t="str">
-        <v>Hiển thị tài khoản trong ô trống</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="str">
-        <v>3. Nhập mật khẩu</v>
-      </c>
-      <c r="G26" t="str">
-        <v>Tranduy123312</v>
-      </c>
-      <c r="H26" t="str">
-        <v>Hiển thị mật khẩu trong ô trống</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="str">
-        <v>4. Bấm nút đăng nhập</v>
-      </c>
-      <c r="H27" t="str">
-        <v>link(trang chủ)</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="str">
-        <v>5. Ấn sang trang cá nhân</v>
-      </c>
-      <c r="H28" t="str">
-        <v>link(trang cá nhân)</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="str">
-        <v>6. Ấn sang "Công cụ tính lương"</v>
-      </c>
-      <c r="H29" t="str">
-        <v>link(trang công cụ tính lương)</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="F30" t="str">
-        <v>7. Nhập lương hằng tháng vào ô trống</v>
-      </c>
-      <c r="H30" t="str">
-        <v>Hiển thị lương vào ô trống</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" t="str">
-        <v>8. Chọn số người phụ thuộc</v>
-      </c>
-      <c r="H31" t="str">
-        <v>Hiển thị số người phụ thuộc và tiền lương tính thuế dựa theo số người phụ thuộc</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="C8:C31"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="D8:D15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1"/>
-    <hyperlink ref="G17" r:id="rId2"/>
-    <hyperlink ref="G25" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="B7:K31"/>
-  </ignoredErrors>
-</worksheet>
 </file>